--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_3_5.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_3_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2787011.721645451</v>
+        <v>-2787724.023468493</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>167214.719915999</v>
+        <v>167214.7199159991</v>
       </c>
     </row>
     <row r="8">
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2.817899082923868</v>
       </c>
       <c r="I9" t="n">
-        <v>2.817899082923868</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1254,10 +1254,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>3.199249640013477</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>3.199249640013477</v>
@@ -1370,22 +1370,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>172.057233228111</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="F11" t="n">
-        <v>113.3589200536123</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="G11" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>168.8731344554827</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.733281229299</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00227733958192</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>181.6344501416383</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>172.8924628452016</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.369887371298091</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>6.869455874161034</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7198007890777</v>
+        <v>40.6572579431639</v>
       </c>
       <c r="S12" t="n">
-        <v>89.36494161302564</v>
+        <v>13.44252716693651</v>
       </c>
       <c r="T12" t="n">
-        <v>36.82265945242245</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="U12" t="n">
-        <v>59.07980534382078</v>
+        <v>59.07980534382081</v>
       </c>
       <c r="V12" t="n">
-        <v>62.50065676233442</v>
+        <v>62.50065676233444</v>
       </c>
       <c r="W12" t="n">
-        <v>88.55631942394376</v>
+        <v>88.55631942394379</v>
       </c>
       <c r="X12" t="n">
-        <v>39.16465028640278</v>
+        <v>39.1646502864028</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.23602198095779</v>
+        <v>45.23602198095782</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28169700256629</v>
+        <v>25.28169700256632</v>
       </c>
       <c r="S13" t="n">
-        <v>57.28978021311273</v>
+        <v>57.28978021311276</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61329429725518</v>
+        <v>45.61329429725521</v>
       </c>
       <c r="U13" t="n">
         <v>110.5082928154978</v>
       </c>
       <c r="V13" t="n">
-        <v>66.96075103138207</v>
+        <v>66.9607510313821</v>
       </c>
       <c r="W13" t="n">
         <v>112.1624429362675</v>
       </c>
       <c r="X13" t="n">
-        <v>43.7711912551747</v>
+        <v>43.77119125517473</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99300866110059</v>
+        <v>38.99300866110062</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>127.5806477033824</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>168.8731344554828</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,22 +1652,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>16.73328122929898</v>
       </c>
       <c r="S14" t="n">
-        <v>49.36873040538035</v>
+        <v>49.36873040538032</v>
       </c>
       <c r="T14" t="n">
-        <v>44.31761724675141</v>
+        <v>44.31761724675138</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>62.47283396377091</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>159.7481996726991</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>181.6344501416383</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.369887371298091</v>
+        <v>9.369887371298063</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
+        <v>164.8538885519383</v>
+      </c>
+      <c r="T15" t="n">
+        <v>36.82265945242242</v>
+      </c>
+      <c r="U15" t="n">
+        <v>59.07980534382075</v>
+      </c>
+      <c r="V15" t="n">
         <v>188.4979333192472</v>
       </c>
-      <c r="T15" t="n">
-        <v>104.397704348252</v>
-      </c>
-      <c r="U15" t="n">
-        <v>59.07980534382078</v>
-      </c>
-      <c r="V15" t="n">
-        <v>62.50065676233442</v>
-      </c>
       <c r="W15" t="n">
-        <v>88.55631942394376</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="X15" t="n">
-        <v>39.16465028640278</v>
+        <v>39.16465028640275</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.23602198095779</v>
+        <v>45.23602198095776</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28169700256629</v>
+        <v>25.28169700256626</v>
       </c>
       <c r="S16" t="n">
-        <v>57.28978021311273</v>
+        <v>57.28978021311271</v>
       </c>
       <c r="T16" t="n">
-        <v>45.61329429725518</v>
+        <v>45.61329429725515</v>
       </c>
       <c r="U16" t="n">
         <v>110.5082928154978</v>
       </c>
       <c r="V16" t="n">
-        <v>66.96075103138207</v>
+        <v>66.96075103138205</v>
       </c>
       <c r="W16" t="n">
         <v>112.1624429362675</v>
       </c>
       <c r="X16" t="n">
-        <v>43.7711912551747</v>
+        <v>43.77119125517467</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.99300866110059</v>
+        <v>38.99300866110056</v>
       </c>
     </row>
     <row r="17">
@@ -1856,10 +1856,10 @@
         <v>105.7515787130291</v>
       </c>
       <c r="G17" t="n">
-        <v>121.3905020356641</v>
+        <v>121.3905020356642</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57372768156614</v>
+        <v>49.57372768156616</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.869455874161034</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -1974,19 +1974,19 @@
         <v>188.4979333192472</v>
       </c>
       <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
         <v>188.4979333192472</v>
       </c>
-      <c r="U18" t="n">
-        <v>136.0099716521978</v>
-      </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>166.0289796675928</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.6395694508488</v>
+        <v>76.63956945084891</v>
       </c>
       <c r="C20" t="n">
-        <v>52.75782645419429</v>
+        <v>52.7578264541944</v>
       </c>
       <c r="D20" t="n">
-        <v>40.32448871524275</v>
+        <v>40.32448871524286</v>
       </c>
       <c r="E20" t="n">
-        <v>74.03124113465162</v>
+        <v>74.03124113465174</v>
       </c>
       <c r="F20" t="n">
-        <v>105.7515787130289</v>
+        <v>105.7515787130291</v>
       </c>
       <c r="G20" t="n">
-        <v>121.390502035664</v>
+        <v>121.3905020356641</v>
       </c>
       <c r="H20" t="n">
-        <v>49.57372768156603</v>
+        <v>49.57372768156614</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>23.43211268216749</v>
+        <v>23.4321126821676</v>
       </c>
       <c r="W20" t="n">
-        <v>40.44879289878236</v>
+        <v>40.44879289878247</v>
       </c>
       <c r="X20" t="n">
-        <v>62.3350433677216</v>
+        <v>62.33504336772171</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.83789649146536</v>
+        <v>84.83789649146547</v>
       </c>
     </row>
     <row r="21">
@@ -2157,25 +2157,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>40.29345508181872</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>47.31184619050069</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.869455874161034</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2217,16 +2217,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
     </row>
     <row r="22">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76.6395694508488</v>
+        <v>76.63956945084891</v>
       </c>
       <c r="C23" t="n">
-        <v>52.75782645419429</v>
+        <v>52.7578264541944</v>
       </c>
       <c r="D23" t="n">
-        <v>40.32448871524275</v>
+        <v>40.32448871524286</v>
       </c>
       <c r="E23" t="n">
-        <v>74.03124113465162</v>
+        <v>74.03124113465174</v>
       </c>
       <c r="F23" t="n">
-        <v>105.7515787130289</v>
+        <v>105.7515787130291</v>
       </c>
       <c r="G23" t="n">
-        <v>121.390502035664</v>
+        <v>121.3905020356641</v>
       </c>
       <c r="H23" t="n">
-        <v>49.57372768156603</v>
+        <v>49.57372768156616</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>23.43211268216749</v>
+        <v>23.4321126821676</v>
       </c>
       <c r="W23" t="n">
-        <v>40.44879289878236</v>
+        <v>40.44879289878247</v>
       </c>
       <c r="X23" t="n">
-        <v>62.3350433677216</v>
+        <v>62.33504336772171</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.83789649146536</v>
+        <v>84.83789649146547</v>
       </c>
     </row>
     <row r="24">
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2415,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,28 +2439,28 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.869455874161034</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>188.497933319247</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>188.497933319247</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="U24" t="n">
-        <v>53.09907559571158</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>167.0087614624741</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>160.6024898538323</v>
+        <v>160.6024898538322</v>
       </c>
       <c r="C26" t="n">
-        <v>136.7207468571778</v>
+        <v>136.7207468571777</v>
       </c>
       <c r="D26" t="n">
-        <v>124.2874091182263</v>
+        <v>124.2874091182262</v>
       </c>
       <c r="E26" t="n">
-        <v>157.9941615376352</v>
+        <v>157.9941615376351</v>
       </c>
       <c r="F26" t="n">
-        <v>189.7144991160125</v>
+        <v>189.7144991160124</v>
       </c>
       <c r="G26" t="n">
-        <v>205.3534224386476</v>
+        <v>205.3534224386474</v>
       </c>
       <c r="H26" t="n">
-        <v>133.5366480845496</v>
+        <v>133.5366480845495</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52501869147505</v>
+        <v>27.52501869147494</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03224403444719</v>
+        <v>14.03224403444708</v>
       </c>
       <c r="T26" t="n">
-        <v>8.981130875818266</v>
+        <v>8.981130875818153</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66579096864876</v>
+        <v>36.66579096864865</v>
       </c>
       <c r="V26" t="n">
-        <v>107.395033085151</v>
+        <v>107.3950330851509</v>
       </c>
       <c r="W26" t="n">
-        <v>124.4117133017659</v>
+        <v>124.4117133017658</v>
       </c>
       <c r="X26" t="n">
-        <v>146.2979637707051</v>
+        <v>146.297963770705</v>
       </c>
       <c r="Y26" t="n">
-        <v>168.8008168944489</v>
+        <v>168.8008168944488</v>
       </c>
     </row>
     <row r="27">
@@ -2634,19 +2634,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>140.4673607652022</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.486173081489291</v>
+        <v>1.486173081489177</v>
       </c>
       <c r="U27" t="n">
-        <v>23.74331897288762</v>
+        <v>23.74331897288751</v>
       </c>
       <c r="V27" t="n">
-        <v>27.16417039140126</v>
+        <v>27.16417039140114</v>
       </c>
       <c r="W27" t="n">
-        <v>53.2198330530106</v>
+        <v>53.21983305301049</v>
       </c>
       <c r="X27" t="n">
-        <v>3.828163915469617</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.899535610024628</v>
+        <v>143.2410666238285</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.95329384217958</v>
+        <v>21.95329384217946</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27680792632202</v>
+        <v>10.27680792632191</v>
       </c>
       <c r="U28" t="n">
-        <v>75.17180644456462</v>
+        <v>75.17180644456451</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62426466044892</v>
+        <v>31.6242646604488</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82595656533434</v>
+        <v>76.82595656533422</v>
       </c>
       <c r="X28" t="n">
-        <v>8.43470488424154</v>
+        <v>8.434704884241427</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.65652229016743</v>
+        <v>3.656522290167317</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>160.6024898538324</v>
+        <v>160.6024898538323</v>
       </c>
       <c r="C29" t="n">
-        <v>136.7207468571779</v>
+        <v>136.7207468571778</v>
       </c>
       <c r="D29" t="n">
-        <v>124.2874091182263</v>
+        <v>124.2874091182262</v>
       </c>
       <c r="E29" t="n">
-        <v>157.9941615376352</v>
+        <v>157.9941615376351</v>
       </c>
       <c r="F29" t="n">
-        <v>189.7144991160125</v>
+        <v>189.7144991160124</v>
       </c>
       <c r="G29" t="n">
-        <v>205.3534224386476</v>
+        <v>205.3534224386475</v>
       </c>
       <c r="H29" t="n">
-        <v>133.5366480845496</v>
+        <v>133.5366480845495</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52501869147507</v>
+        <v>27.525018691475</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03224403444721</v>
+        <v>14.03224403444713</v>
       </c>
       <c r="T29" t="n">
-        <v>8.981130875818293</v>
+        <v>8.981130875818209</v>
       </c>
       <c r="U29" t="n">
-        <v>36.66579096864879</v>
+        <v>36.66579096864871</v>
       </c>
       <c r="V29" t="n">
-        <v>107.3950330851511</v>
+        <v>107.395033085151</v>
       </c>
       <c r="W29" t="n">
-        <v>124.4117133017659</v>
+        <v>124.4117133017658</v>
       </c>
       <c r="X29" t="n">
-        <v>146.2979637707052</v>
+        <v>146.2979637707051</v>
       </c>
       <c r="Y29" t="n">
-        <v>168.8008168944489</v>
+        <v>168.8008168944488</v>
       </c>
     </row>
     <row r="30">
@@ -2868,19 +2868,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>24.62415803954634</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.486173081489318</v>
+        <v>1.486173081489234</v>
       </c>
       <c r="U30" t="n">
-        <v>23.74331897288765</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V30" t="n">
-        <v>27.16417039140129</v>
+        <v>27.1641703914012</v>
       </c>
       <c r="W30" t="n">
-        <v>53.21983305301063</v>
+        <v>53.21983305301055</v>
       </c>
       <c r="X30" t="n">
-        <v>3.828163915469645</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>150.366896375227</v>
+        <v>9.899535610024571</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.9532938421796</v>
+        <v>21.95329384217952</v>
       </c>
       <c r="T31" t="n">
-        <v>10.27680792632205</v>
+        <v>10.27680792632196</v>
       </c>
       <c r="U31" t="n">
-        <v>75.17180644456465</v>
+        <v>75.17180644456457</v>
       </c>
       <c r="V31" t="n">
-        <v>31.62426466044894</v>
+        <v>31.62426466044886</v>
       </c>
       <c r="W31" t="n">
-        <v>76.82595656533437</v>
+        <v>76.82595656533428</v>
       </c>
       <c r="X31" t="n">
-        <v>8.434704884241569</v>
+        <v>8.434704884241484</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.656522290167459</v>
+        <v>3.656522290167374</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>159.7747799869681</v>
+        <v>159.774779986968</v>
       </c>
       <c r="C32" t="n">
-        <v>135.8930369903136</v>
+        <v>135.8930369903135</v>
       </c>
       <c r="D32" t="n">
-        <v>123.4596992513621</v>
+        <v>123.459699251362</v>
       </c>
       <c r="E32" t="n">
         <v>157.1664516707709</v>
       </c>
       <c r="F32" t="n">
-        <v>188.8867892491483</v>
+        <v>188.8867892491482</v>
       </c>
       <c r="G32" t="n">
-        <v>204.5257125717833</v>
+        <v>204.5257125717832</v>
       </c>
       <c r="H32" t="n">
         <v>132.7089382176853</v>
       </c>
       <c r="I32" t="n">
-        <v>26.69730882461081</v>
+        <v>26.69730882461076</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.20453416758295</v>
+        <v>13.20453416758289</v>
       </c>
       <c r="T32" t="n">
-        <v>8.153421008954012</v>
+        <v>8.153421008953956</v>
       </c>
       <c r="U32" t="n">
-        <v>35.83808110178452</v>
+        <v>35.83808110178447</v>
       </c>
       <c r="V32" t="n">
-        <v>106.5673232182868</v>
+        <v>106.5673232182867</v>
       </c>
       <c r="W32" t="n">
-        <v>123.5840034349017</v>
+        <v>123.5840034349016</v>
       </c>
       <c r="X32" t="n">
-        <v>145.4702539038409</v>
+        <v>145.4702539038408</v>
       </c>
       <c r="Y32" t="n">
-        <v>167.9731070275847</v>
+        <v>167.9731070275846</v>
       </c>
     </row>
     <row r="33">
@@ -3105,19 +3105,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>29.88153082329839</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.6584632146250504</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U33" t="n">
-        <v>168.3492290724114</v>
+        <v>22.91560910602333</v>
       </c>
       <c r="V33" t="n">
-        <v>26.33646052453702</v>
+        <v>26.33646052453696</v>
       </c>
       <c r="W33" t="n">
-        <v>52.39212318614636</v>
+        <v>52.39212318614631</v>
       </c>
       <c r="X33" t="n">
-        <v>3.000454048605377</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.071825743160389</v>
+        <v>9.071825743160332</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.12558397531533</v>
+        <v>21.12558397531528</v>
       </c>
       <c r="T34" t="n">
-        <v>9.44909805945778</v>
+        <v>9.449098059457725</v>
       </c>
       <c r="U34" t="n">
-        <v>74.34409657770038</v>
+        <v>74.34409657770033</v>
       </c>
       <c r="V34" t="n">
-        <v>30.79655479358468</v>
+        <v>30.79655479358462</v>
       </c>
       <c r="W34" t="n">
-        <v>75.9982466984701</v>
+        <v>75.99824669847004</v>
       </c>
       <c r="X34" t="n">
-        <v>7.606995017377301</v>
+        <v>7.606995017377244</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.828812423303191</v>
+        <v>2.828812423303134</v>
       </c>
     </row>
     <row r="35">
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3360,13 +3360,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>52.47517038390257</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,13 +3393,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>116.8802029197561</v>
+        <v>168.0503214642896</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3588,22 +3588,22 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>52.47517038390257</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3624,22 +3624,22 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.869455874161009</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>134.7198007890776</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S39" t="n">
-        <v>99.18091923314873</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>223.1906630335582</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3743,13 +3743,13 @@
         <v>109.1957281657028</v>
       </c>
       <c r="D41" t="n">
-        <v>96.76239042675127</v>
+        <v>96.76239042675124</v>
       </c>
       <c r="E41" t="n">
         <v>130.4691428461601</v>
       </c>
       <c r="F41" t="n">
-        <v>162.1894804245375</v>
+        <v>162.1894804245374</v>
       </c>
       <c r="G41" t="n">
         <v>177.8284037471725</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.140772277173735</v>
+        <v>9.140772277173706</v>
       </c>
       <c r="V41" t="n">
-        <v>79.870014393676</v>
+        <v>79.87001439367597</v>
       </c>
       <c r="W41" t="n">
-        <v>96.88669461029087</v>
+        <v>96.88669461029085</v>
       </c>
       <c r="X41" t="n">
         <v>118.7729450792301</v>
       </c>
       <c r="Y41" t="n">
-        <v>141.2757982029739</v>
+        <v>141.2757982029738</v>
       </c>
     </row>
     <row r="42">
@@ -3831,16 +3831,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>52.47517038390257</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3861,28 +3861,28 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.869455874161009</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>76.36558332328572</v>
       </c>
       <c r="W42" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>149.102542930316</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.64678775308959</v>
+        <v>47.64678775308956</v>
       </c>
       <c r="V43" t="n">
-        <v>4.099245968973889</v>
+        <v>4.099245968973861</v>
       </c>
       <c r="W43" t="n">
-        <v>49.30093787385931</v>
+        <v>49.30093787385928</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -4059,10 +4059,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>77.80529220789283</v>
       </c>
       <c r="S45" t="n">
-        <v>177.9662569423878</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4119,7 +4119,7 @@
         <v>25.69481436153558</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4832,13 +4832,13 @@
         <v>6.590454258427762</v>
       </c>
       <c r="T8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="U8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="V8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="W8" t="n">
         <v>6.719070557086891</v>
@@ -4875,7 +4875,7 @@
         <v>3.102302681225188</v>
       </c>
       <c r="H9" t="n">
-        <v>3.102302681225188</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="I9" t="n">
         <v>0.2559399712010781</v>
@@ -4884,25 +4884,25 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.42319711481442</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2559399712010781</v>
+        <v>6.462484272827225</v>
       </c>
       <c r="M9" t="n">
-        <v>3.295227129213883</v>
+        <v>6.462484272827225</v>
       </c>
       <c r="N9" t="n">
-        <v>6.462484272827225</v>
+        <v>9.629741416440567</v>
       </c>
       <c r="O9" t="n">
-        <v>9.629741416440567</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="P9" t="n">
         <v>12.79699856005391</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.565433267111001</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="R9" t="n">
         <v>9.565433267111001</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>664.3598559346847</v>
+        <v>395.8837403609886</v>
       </c>
       <c r="C11" t="n">
-        <v>490.5646708557844</v>
+        <v>395.8837403609886</v>
       </c>
       <c r="D11" t="n">
-        <v>490.5646708557844</v>
+        <v>395.8837403609886</v>
       </c>
       <c r="E11" t="n">
-        <v>490.5646708557844</v>
+        <v>205.4817875132642</v>
       </c>
       <c r="F11" t="n">
-        <v>376.060711205671</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G11" t="n">
-        <v>185.6587583579466</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H11" t="n">
         <v>15.07983466553977</v>
@@ -5039,52 +5039,52 @@
         <v>15.07983466553977</v>
       </c>
       <c r="J11" t="n">
-        <v>115.4328134021288</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K11" t="n">
-        <v>285.139674688828</v>
+        <v>184.7866959522389</v>
       </c>
       <c r="L11" t="n">
-        <v>331.8605171695881</v>
+        <v>305.4379321691868</v>
       </c>
       <c r="M11" t="n">
-        <v>518.4734711556428</v>
+        <v>492.0508861552415</v>
       </c>
       <c r="N11" t="n">
-        <v>593.8013642913352</v>
+        <v>567.3787792909338</v>
       </c>
       <c r="O11" t="n">
-        <v>628.0219989840029</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4395714324992</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="Q11" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="R11" t="n">
-        <v>737.0894290049695</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="S11" t="n">
-        <v>737.0894290049695</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="T11" t="n">
-        <v>737.0894290049695</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="U11" t="n">
-        <v>664.3598559346847</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="V11" t="n">
-        <v>664.3598559346847</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="W11" t="n">
-        <v>664.3598559346847</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="X11" t="n">
-        <v>664.3598559346847</v>
+        <v>570.5225917197781</v>
       </c>
       <c r="Y11" t="n">
-        <v>664.3598559346847</v>
+        <v>395.8837403609886</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>185.9974792101742</v>
+        <v>204.4921089325761</v>
       </c>
       <c r="C12" t="n">
-        <v>176.5329465118933</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D12" t="n">
-        <v>176.5329465118933</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E12" t="n">
-        <v>176.5329465118933</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F12" t="n">
-        <v>176.5329465118933</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G12" t="n">
-        <v>176.5329465118933</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H12" t="n">
-        <v>176.5329465118933</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I12" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J12" t="n">
         <v>15.07983466553977</v>
@@ -5124,46 +5124,46 @@
         <v>53.04316068142015</v>
       </c>
       <c r="L12" t="n">
-        <v>170.3760798097943</v>
+        <v>170.3760798097942</v>
       </c>
       <c r="M12" t="n">
-        <v>352.0527264137997</v>
+        <v>352.0527264137996</v>
       </c>
       <c r="N12" t="n">
         <v>538.6656803998543</v>
       </c>
       <c r="O12" t="n">
-        <v>670.3666200188887</v>
+        <v>670.3666200188886</v>
       </c>
       <c r="P12" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="Q12" t="n">
-        <v>747.0528889596542</v>
+        <v>747.0528889596541</v>
       </c>
       <c r="R12" t="n">
-        <v>610.972282102</v>
+        <v>705.9849516433269</v>
       </c>
       <c r="S12" t="n">
-        <v>520.704664311065</v>
+        <v>692.406641373694</v>
       </c>
       <c r="T12" t="n">
-        <v>483.5100588035676</v>
+        <v>502.0046885259696</v>
       </c>
       <c r="U12" t="n">
-        <v>423.8334877492032</v>
+        <v>442.3281174716052</v>
       </c>
       <c r="V12" t="n">
-        <v>360.7015112215927</v>
+        <v>379.1961409439946</v>
       </c>
       <c r="W12" t="n">
-        <v>271.2506835206394</v>
+        <v>289.7453132430413</v>
       </c>
       <c r="X12" t="n">
-        <v>231.6904307060911</v>
+        <v>250.185060428493</v>
       </c>
       <c r="Y12" t="n">
-        <v>185.9974792101742</v>
+        <v>204.4921089325761</v>
       </c>
     </row>
     <row r="13">
@@ -5173,73 +5173,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.07983466553977</v>
+        <v>15.60586471875848</v>
       </c>
       <c r="C13" t="n">
-        <v>15.07983466553977</v>
+        <v>27.18003706804298</v>
       </c>
       <c r="D13" t="n">
-        <v>47.71579242887332</v>
+        <v>27.18003706804298</v>
       </c>
       <c r="E13" t="n">
-        <v>47.71579242887332</v>
+        <v>63.28743877947736</v>
       </c>
       <c r="F13" t="n">
-        <v>69.62282344107322</v>
+        <v>102.1166068947523</v>
       </c>
       <c r="G13" t="n">
-        <v>69.62282344107322</v>
+        <v>102.1166068947523</v>
       </c>
       <c r="H13" t="n">
-        <v>69.62282344107322</v>
+        <v>102.1166068947523</v>
       </c>
       <c r="I13" t="n">
-        <v>69.62282344107322</v>
+        <v>102.1166068947523</v>
       </c>
       <c r="J13" t="n">
-        <v>69.62282344107322</v>
+        <v>102.1166068947523</v>
       </c>
       <c r="K13" t="n">
-        <v>179.6299246148123</v>
+        <v>212.1237080684913</v>
       </c>
       <c r="L13" t="n">
-        <v>179.6299246148123</v>
+        <v>212.1237080684913</v>
       </c>
       <c r="M13" t="n">
-        <v>331.0320093814449</v>
+        <v>363.525792835124</v>
       </c>
       <c r="N13" t="n">
-        <v>331.0320093814449</v>
+        <v>363.525792835124</v>
       </c>
       <c r="O13" t="n">
-        <v>470.2946957351831</v>
+        <v>402.2436925423774</v>
       </c>
       <c r="P13" t="n">
-        <v>470.2946957351831</v>
+        <v>520.7166611426682</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.7166611426679</v>
+        <v>520.7166611426682</v>
       </c>
       <c r="R13" t="n">
-        <v>495.1795934633081</v>
+        <v>495.1795934633082</v>
       </c>
       <c r="S13" t="n">
-        <v>437.311128601578</v>
+        <v>437.3111286015782</v>
       </c>
       <c r="T13" t="n">
-        <v>391.2370939578859</v>
+        <v>391.237093957886</v>
       </c>
       <c r="U13" t="n">
-        <v>279.6125557604134</v>
+        <v>279.6125557604135</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9754335064921</v>
+        <v>211.9754335064922</v>
       </c>
       <c r="W13" t="n">
-        <v>98.68003660117138</v>
+        <v>98.68003660117144</v>
       </c>
       <c r="X13" t="n">
-        <v>54.46671210099491</v>
+        <v>54.46671210099494</v>
       </c>
       <c r="Y13" t="n">
         <v>15.07983466553977</v>
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>314.5280994724743</v>
+        <v>205.4817875132642</v>
       </c>
       <c r="C14" t="n">
-        <v>314.5280994724743</v>
+        <v>205.4817875132642</v>
       </c>
       <c r="D14" t="n">
-        <v>314.5280994724743</v>
+        <v>205.4817875132642</v>
       </c>
       <c r="E14" t="n">
-        <v>314.5280994724743</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F14" t="n">
-        <v>314.5280994724743</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G14" t="n">
-        <v>185.6587583579466</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H14" t="n">
         <v>15.07983466553977</v>
@@ -5276,52 +5276,52 @@
         <v>15.07983466553977</v>
       </c>
       <c r="J14" t="n">
-        <v>115.4328134021288</v>
+        <v>113.2909722318773</v>
       </c>
       <c r="K14" t="n">
-        <v>115.4328134021288</v>
+        <v>113.2909722318773</v>
       </c>
       <c r="L14" t="n">
-        <v>162.1536558828889</v>
+        <v>299.9039262179321</v>
       </c>
       <c r="M14" t="n">
-        <v>243.0155549698362</v>
+        <v>380.7658253048793</v>
       </c>
       <c r="N14" t="n">
-        <v>318.4008885624852</v>
+        <v>567.3787792909341</v>
       </c>
       <c r="O14" t="n">
-        <v>505.01384254854</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="P14" t="n">
-        <v>666.4395714324993</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="Q14" t="n">
         <v>753.9917332769887</v>
       </c>
       <c r="R14" t="n">
-        <v>753.9917332769887</v>
+        <v>737.0894290049696</v>
       </c>
       <c r="S14" t="n">
-        <v>704.1243288271096</v>
+        <v>687.2220245550905</v>
       </c>
       <c r="T14" t="n">
-        <v>659.3590588808959</v>
+        <v>642.4567546088768</v>
       </c>
       <c r="U14" t="n">
-        <v>659.3590588808959</v>
+        <v>579.352881918199</v>
       </c>
       <c r="V14" t="n">
-        <v>659.3590588808959</v>
+        <v>579.352881918199</v>
       </c>
       <c r="W14" t="n">
-        <v>497.9972410296847</v>
+        <v>579.352881918199</v>
       </c>
       <c r="X14" t="n">
-        <v>314.5280994724743</v>
+        <v>395.8837403609887</v>
       </c>
       <c r="Y14" t="n">
-        <v>314.5280994724743</v>
+        <v>395.8837403609887</v>
       </c>
     </row>
     <row r="15">
@@ -5331,7 +5331,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24.54436736382068</v>
+        <v>24.54436736382065</v>
       </c>
       <c r="C15" t="n">
         <v>15.07983466553977</v>
@@ -5379,28 +5379,28 @@
         <v>753.9917332769887</v>
       </c>
       <c r="R15" t="n">
-        <v>617.9111264193346</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="S15" t="n">
-        <v>427.5091735716101</v>
+        <v>587.4726539315965</v>
       </c>
       <c r="T15" t="n">
-        <v>322.0569469572142</v>
+        <v>550.2780484240991</v>
       </c>
       <c r="U15" t="n">
-        <v>262.3803759028497</v>
+        <v>490.6014773697347</v>
       </c>
       <c r="V15" t="n">
-        <v>199.2483993752392</v>
+        <v>300.1995245220102</v>
       </c>
       <c r="W15" t="n">
-        <v>109.7975716742859</v>
+        <v>109.7975716742858</v>
       </c>
       <c r="X15" t="n">
-        <v>70.23731885973763</v>
+        <v>70.23731885973757</v>
       </c>
       <c r="Y15" t="n">
-        <v>24.54436736382068</v>
+        <v>24.54436736382065</v>
       </c>
     </row>
     <row r="16">
@@ -5416,67 +5416,67 @@
         <v>15.07983466553977</v>
       </c>
       <c r="D16" t="n">
-        <v>15.07983466553977</v>
+        <v>40.40781665231074</v>
       </c>
       <c r="E16" t="n">
-        <v>15.07983466553977</v>
+        <v>40.40781665231074</v>
       </c>
       <c r="F16" t="n">
-        <v>22.72543648067366</v>
+        <v>40.40781665231074</v>
       </c>
       <c r="G16" t="n">
-        <v>32.07845081432987</v>
+        <v>40.40781665231074</v>
       </c>
       <c r="H16" t="n">
-        <v>44.27907864774711</v>
+        <v>40.40781665231074</v>
       </c>
       <c r="I16" t="n">
-        <v>57.44142177199887</v>
+        <v>40.40781665231074</v>
       </c>
       <c r="J16" t="n">
-        <v>114.7709917764562</v>
+        <v>40.40781665231074</v>
       </c>
       <c r="K16" t="n">
-        <v>224.7780929501952</v>
+        <v>40.40781665231074</v>
       </c>
       <c r="L16" t="n">
-        <v>369.3145763760353</v>
+        <v>40.40781665231074</v>
       </c>
       <c r="M16" t="n">
-        <v>520.7166611426679</v>
+        <v>191.8099014189434</v>
       </c>
       <c r="N16" t="n">
-        <v>520.7166611426679</v>
+        <v>351.8217271348921</v>
       </c>
       <c r="O16" t="n">
-        <v>520.7166611426679</v>
+        <v>351.8217271348921</v>
       </c>
       <c r="P16" t="n">
-        <v>520.7166611426679</v>
+        <v>470.2946957351829</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.7166611426679</v>
+        <v>520.7166611426677</v>
       </c>
       <c r="R16" t="n">
-        <v>495.1795934633081</v>
+        <v>495.1795934633078</v>
       </c>
       <c r="S16" t="n">
-        <v>437.311128601578</v>
+        <v>437.3111286015778</v>
       </c>
       <c r="T16" t="n">
-        <v>391.2370939578859</v>
+        <v>391.2370939578857</v>
       </c>
       <c r="U16" t="n">
-        <v>279.6125557604134</v>
+        <v>279.6125557604133</v>
       </c>
       <c r="V16" t="n">
-        <v>211.9754335064921</v>
+        <v>211.975433506492</v>
       </c>
       <c r="W16" t="n">
-        <v>98.68003660117138</v>
+        <v>98.68003660117132</v>
       </c>
       <c r="X16" t="n">
-        <v>54.46671210099491</v>
+        <v>54.46671210099488</v>
       </c>
       <c r="Y16" t="n">
         <v>15.07983466553977</v>
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3923242961946</v>
+        <v>463.3923242961944</v>
       </c>
       <c r="C17" t="n">
-        <v>410.101590504079</v>
+        <v>410.1015905040788</v>
       </c>
       <c r="D17" t="n">
         <v>369.3697837210052</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5907522718619</v>
+        <v>294.5907522718621</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7709757940547</v>
+        <v>187.7709757940552</v>
       </c>
       <c r="G17" t="n">
-        <v>65.15430707116214</v>
+        <v>65.15430707116217</v>
       </c>
       <c r="H17" t="n">
         <v>15.07983466553977</v>
@@ -5513,52 +5513,52 @@
         <v>15.07983466553977</v>
       </c>
       <c r="J17" t="n">
-        <v>38.41954622895921</v>
+        <v>201.6927886515945</v>
       </c>
       <c r="K17" t="n">
-        <v>38.41954622895921</v>
+        <v>201.6927886515945</v>
       </c>
       <c r="L17" t="n">
-        <v>85.14038870971933</v>
+        <v>265.6832915252643</v>
       </c>
       <c r="M17" t="n">
-        <v>166.0022877966666</v>
+        <v>346.5451906122116</v>
       </c>
       <c r="N17" t="n">
-        <v>241.330180932359</v>
+        <v>533.1581445982663</v>
       </c>
       <c r="O17" t="n">
-        <v>275.5508156250268</v>
+        <v>567.3787792909341</v>
       </c>
       <c r="P17" t="n">
-        <v>275.5508156250268</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="Q17" t="n">
-        <v>462.1637696110814</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="R17" t="n">
-        <v>563.7042339002528</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="S17" t="n">
-        <v>632.9356035051037</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="T17" t="n">
-        <v>707.1675751369972</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="U17" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="V17" t="n">
         <v>730.3229325879304</v>
       </c>
       <c r="W17" t="n">
-        <v>689.4655660235039</v>
+        <v>689.4655660235037</v>
       </c>
       <c r="X17" t="n">
-        <v>626.5008757530779</v>
+        <v>626.5008757530777</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.8060308122036</v>
+        <v>540.8060308122035</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>228.8651735145106</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="C18" t="n">
-        <v>228.8651735145106</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D18" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E18" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F18" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G18" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H18" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I18" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J18" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="K18" t="n">
-        <v>53.04316068142018</v>
+        <v>53.04316068142015</v>
       </c>
       <c r="L18" t="n">
-        <v>170.3760798097943</v>
+        <v>170.3760798097942</v>
       </c>
       <c r="M18" t="n">
         <v>352.0527264137996</v>
       </c>
       <c r="N18" t="n">
-        <v>538.6656803998543</v>
+        <v>538.6656803998544</v>
       </c>
       <c r="O18" t="n">
-        <v>670.3666200188887</v>
+        <v>670.3666200188889</v>
       </c>
       <c r="P18" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="Q18" t="n">
-        <v>747.0528889596542</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="R18" t="n">
-        <v>747.0528889596542</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="S18" t="n">
-        <v>556.6509361119298</v>
+        <v>563.5897804292642</v>
       </c>
       <c r="T18" t="n">
-        <v>366.2489832642054</v>
+        <v>563.5897804292642</v>
       </c>
       <c r="U18" t="n">
-        <v>228.8651735145106</v>
+        <v>373.1878275815398</v>
       </c>
       <c r="V18" t="n">
-        <v>228.8651735145106</v>
+        <v>182.7858747338154</v>
       </c>
       <c r="W18" t="n">
-        <v>228.8651735145106</v>
+        <v>182.7858747338154</v>
       </c>
       <c r="X18" t="n">
-        <v>228.8651735145106</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="Y18" t="n">
-        <v>228.8651735145106</v>
+        <v>15.07983466553977</v>
       </c>
     </row>
     <row r="19">
@@ -5726,73 +5726,73 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3923242961947</v>
+        <v>463.3923242961946</v>
       </c>
       <c r="C20" t="n">
-        <v>410.1015905040792</v>
+        <v>410.101590504079</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3697837210061</v>
+        <v>369.3697837210052</v>
       </c>
       <c r="E20" t="n">
-        <v>294.590752271863</v>
+        <v>294.5907522718619</v>
       </c>
       <c r="F20" t="n">
-        <v>187.770975794056</v>
+        <v>187.7709757940547</v>
       </c>
       <c r="G20" t="n">
-        <v>65.15430707116202</v>
+        <v>65.15430707116214</v>
       </c>
       <c r="H20" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="I20" t="n">
-        <v>70.95335735993318</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J20" t="n">
-        <v>139.9600105181302</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K20" t="n">
-        <v>139.9600105181302</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="L20" t="n">
-        <v>186.6808529988904</v>
+        <v>61.8006771462999</v>
       </c>
       <c r="M20" t="n">
-        <v>267.5427520858377</v>
+        <v>248.4136311323546</v>
       </c>
       <c r="N20" t="n">
-        <v>342.87064522153</v>
+        <v>435.0265851184093</v>
       </c>
       <c r="O20" t="n">
-        <v>377.0912799141978</v>
+        <v>469.2472198110771</v>
       </c>
       <c r="P20" t="n">
-        <v>377.0912799141978</v>
+        <v>578.2192973559238</v>
       </c>
       <c r="Q20" t="n">
-        <v>563.7042339002525</v>
+        <v>578.2192973559238</v>
       </c>
       <c r="R20" t="n">
-        <v>563.7042339002525</v>
+        <v>679.7597616450952</v>
       </c>
       <c r="S20" t="n">
-        <v>632.9356035051035</v>
+        <v>679.7597616450952</v>
       </c>
       <c r="T20" t="n">
-        <v>707.1675751369971</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="U20" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="V20" t="n">
         <v>730.3229325879304</v>
       </c>
       <c r="W20" t="n">
-        <v>689.4655660235038</v>
+        <v>689.4655660235039</v>
       </c>
       <c r="X20" t="n">
-        <v>626.5008757530778</v>
+        <v>626.5008757530779</v>
       </c>
       <c r="Y20" t="n">
         <v>540.8060308122036</v>
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>747.0528889596542</v>
+        <v>142.0854150552106</v>
       </c>
       <c r="C21" t="n">
-        <v>557.6406146926179</v>
+        <v>142.0854150552106</v>
       </c>
       <c r="D21" t="n">
-        <v>396.8604984536496</v>
+        <v>142.0854150552106</v>
       </c>
       <c r="E21" t="n">
-        <v>223.2972945750641</v>
+        <v>142.0854150552106</v>
       </c>
       <c r="F21" t="n">
-        <v>62.86957829230815</v>
+        <v>142.0854150552106</v>
       </c>
       <c r="G21" t="n">
-        <v>15.07983466553977</v>
+        <v>142.0854150552106</v>
       </c>
       <c r="H21" t="n">
         <v>15.07983466553977</v>
@@ -5832,49 +5832,49 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K21" t="n">
-        <v>53.0431606814201</v>
+        <v>53.04316068142015</v>
       </c>
       <c r="L21" t="n">
         <v>170.3760798097942</v>
       </c>
       <c r="M21" t="n">
-        <v>352.0527264137996</v>
+        <v>352.0527264137997</v>
       </c>
       <c r="N21" t="n">
-        <v>538.6656803998543</v>
+        <v>538.6656803998544</v>
       </c>
       <c r="O21" t="n">
-        <v>670.3666200188887</v>
+        <v>670.3666200188889</v>
       </c>
       <c r="P21" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="Q21" t="n">
-        <v>747.0528889596542</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="R21" t="n">
-        <v>747.0528889596542</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="S21" t="n">
-        <v>747.0528889596542</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="T21" t="n">
-        <v>747.0528889596542</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="U21" t="n">
-        <v>747.0528889596542</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="V21" t="n">
-        <v>747.0528889596542</v>
+        <v>563.5897804292642</v>
       </c>
       <c r="W21" t="n">
-        <v>747.0528889596542</v>
+        <v>563.5897804292642</v>
       </c>
       <c r="X21" t="n">
-        <v>747.0528889596542</v>
+        <v>373.1878275815398</v>
       </c>
       <c r="Y21" t="n">
-        <v>747.0528889596542</v>
+        <v>182.7858747338154</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3923242961941</v>
+        <v>463.3923242961947</v>
       </c>
       <c r="C23" t="n">
-        <v>410.1015905040787</v>
+        <v>410.1015905040791</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3697837210052</v>
+        <v>369.3697837210055</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5907522718622</v>
+        <v>294.5907522718624</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7709757940553</v>
+        <v>187.7709757940552</v>
       </c>
       <c r="G23" t="n">
-        <v>65.15430707116201</v>
+        <v>65.15430707116217</v>
       </c>
       <c r="H23" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I23" t="n">
-        <v>70.95335735993316</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J23" t="n">
-        <v>257.5663113459877</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K23" t="n">
-        <v>257.5663113459877</v>
+        <v>201.6927886515945</v>
       </c>
       <c r="L23" t="n">
-        <v>304.2871538267478</v>
+        <v>248.4136311323546</v>
       </c>
       <c r="M23" t="n">
-        <v>385.1490529136951</v>
+        <v>329.2755302193019</v>
       </c>
       <c r="N23" t="n">
-        <v>460.4769460493875</v>
+        <v>515.8884842053567</v>
       </c>
       <c r="O23" t="n">
-        <v>494.6975807420553</v>
+        <v>550.1091188980245</v>
       </c>
       <c r="P23" t="n">
-        <v>652.4512689878164</v>
+        <v>637.9362055321466</v>
       </c>
       <c r="Q23" t="n">
-        <v>652.4512689878164</v>
+        <v>637.9362055321466</v>
       </c>
       <c r="R23" t="n">
-        <v>753.9917332769879</v>
+        <v>637.9362055321466</v>
       </c>
       <c r="S23" t="n">
-        <v>753.9917332769879</v>
+        <v>707.1675751369975</v>
       </c>
       <c r="T23" t="n">
-        <v>753.9917332769879</v>
+        <v>707.1675751369975</v>
       </c>
       <c r="U23" t="n">
-        <v>753.9917332769879</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="V23" t="n">
-        <v>730.3229325879298</v>
+        <v>730.3229325879306</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4655660235032</v>
+        <v>689.4655660235039</v>
       </c>
       <c r="X23" t="n">
-        <v>626.5008757530774</v>
+        <v>626.5008757530779</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.8060308122032</v>
+        <v>540.8060308122037</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.5329465118932</v>
+        <v>204.4921089325761</v>
       </c>
       <c r="C24" t="n">
-        <v>176.5329465118932</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D24" t="n">
-        <v>176.5329465118932</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E24" t="n">
-        <v>176.5329465118932</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F24" t="n">
-        <v>176.5329465118932</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G24" t="n">
-        <v>176.5329465118932</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H24" t="n">
-        <v>176.5329465118932</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I24" t="n">
-        <v>68.08505727554238</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J24" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K24" t="n">
-        <v>53.04316068142013</v>
+        <v>53.04316068142015</v>
       </c>
       <c r="L24" t="n">
-        <v>170.3760798097942</v>
+        <v>170.3760798097943</v>
       </c>
       <c r="M24" t="n">
-        <v>352.0527264137996</v>
+        <v>352.0527264137997</v>
       </c>
       <c r="N24" t="n">
-        <v>538.6656803998542</v>
+        <v>538.6656803998544</v>
       </c>
       <c r="O24" t="n">
-        <v>670.3666200188886</v>
+        <v>670.3666200188889</v>
       </c>
       <c r="P24" t="n">
-        <v>753.9917332769885</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="Q24" t="n">
-        <v>747.0528889596541</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="R24" t="n">
-        <v>610.9722821019999</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="S24" t="n">
-        <v>420.5703292542756</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="T24" t="n">
-        <v>230.1683764065514</v>
+        <v>563.5897804292642</v>
       </c>
       <c r="U24" t="n">
-        <v>176.5329465118932</v>
+        <v>563.5897804292642</v>
       </c>
       <c r="V24" t="n">
-        <v>176.5329465118932</v>
+        <v>373.1878275815398</v>
       </c>
       <c r="W24" t="n">
-        <v>176.5329465118932</v>
+        <v>373.1878275815398</v>
       </c>
       <c r="X24" t="n">
-        <v>176.5329465118932</v>
+        <v>204.4921089325761</v>
       </c>
       <c r="Y24" t="n">
-        <v>176.5329465118932</v>
+        <v>204.4921089325761</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="C25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="L25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="M25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="N25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="O25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="P25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="R25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="S25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="T25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="U25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="V25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="W25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="X25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553977</v>
       </c>
     </row>
     <row r="26">
@@ -6203,37 +6203,37 @@
         <v>1020.898422489611</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7966579874108</v>
+        <v>882.796657987411</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2538204942529</v>
+        <v>757.2538204942532</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6637583350255</v>
+        <v>597.6637583350259</v>
       </c>
       <c r="F26" t="n">
-        <v>406.032951147134</v>
+        <v>406.0329511471346</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6052517141567</v>
+        <v>198.6052517141574</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71974859845005</v>
+        <v>63.71974859845008</v>
       </c>
       <c r="I26" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="J26" t="n">
         <v>171.252799658955</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9427824528781</v>
+        <v>375.9427824528782</v>
       </c>
       <c r="L26" t="n">
-        <v>634.013527952399</v>
+        <v>634.0135279523994</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2253300581074</v>
+        <v>926.2253300581078</v>
       </c>
       <c r="N26" t="n">
         <v>1212.903126212561</v>
@@ -6245,10 +6245,10 @@
         <v>1654.882514315173</v>
       </c>
       <c r="Q26" t="n">
-        <v>1777.417797666886</v>
+        <v>1777.417797666885</v>
       </c>
       <c r="R26" t="n">
-        <v>1795.834970757104</v>
+        <v>1795.834970757103</v>
       </c>
       <c r="S26" t="n">
         <v>1781.660986883924</v>
@@ -6260,7 +6260,7 @@
         <v>1735.552985020826</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.073153621684</v>
+        <v>1627.073153621683</v>
       </c>
       <c r="W26" t="n">
         <v>1501.404756347172</v>
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>672.5739588106055</v>
+        <v>186.1637746420379</v>
       </c>
       <c r="C27" t="n">
-        <v>530.6877358154518</v>
+        <v>186.1637746420379</v>
       </c>
       <c r="D27" t="n">
-        <v>369.9076195764835</v>
+        <v>186.1637746420379</v>
       </c>
       <c r="E27" t="n">
-        <v>196.344415697898</v>
+        <v>186.1637746420379</v>
       </c>
       <c r="F27" t="n">
-        <v>35.91669941514207</v>
+        <v>186.1637746420379</v>
       </c>
       <c r="G27" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="H27" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="I27" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="J27" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="K27" t="n">
-        <v>73.88002543102245</v>
+        <v>73.88002543102243</v>
       </c>
       <c r="L27" t="n">
-        <v>191.2129445593966</v>
+        <v>191.2129445593965</v>
       </c>
       <c r="M27" t="n">
         <v>372.889591163402</v>
@@ -6327,28 +6327,28 @@
         <v>793.1206204512955</v>
       </c>
       <c r="R27" t="n">
-        <v>793.1206204512955</v>
+        <v>657.0400135936413</v>
       </c>
       <c r="S27" t="n">
-        <v>793.1206204512955</v>
+        <v>657.0400135936413</v>
       </c>
       <c r="T27" t="n">
-        <v>791.6194355204982</v>
+        <v>655.5388286628441</v>
       </c>
       <c r="U27" t="n">
-        <v>767.6362850428339</v>
+        <v>631.55567818518</v>
       </c>
       <c r="V27" t="n">
-        <v>740.1977290919236</v>
+        <v>604.1171222342698</v>
       </c>
       <c r="W27" t="n">
-        <v>686.4403219676705</v>
+        <v>550.3597151100167</v>
       </c>
       <c r="X27" t="n">
-        <v>682.5734897298223</v>
+        <v>330.8517207267131</v>
       </c>
       <c r="Y27" t="n">
-        <v>672.5739588106055</v>
+        <v>186.1637746420379</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>71.42585097558464</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="C28" t="n">
-        <v>71.42585097558464</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="D28" t="n">
-        <v>71.42585097558464</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="E28" t="n">
-        <v>71.42585097558464</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="F28" t="n">
-        <v>71.42585097558464</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="G28" t="n">
-        <v>71.42585097558464</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="H28" t="n">
-        <v>71.42585097558464</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="I28" t="n">
-        <v>71.42585097558464</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="J28" t="n">
-        <v>71.42585097558464</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="K28" t="n">
-        <v>91.91670631504718</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="L28" t="n">
-        <v>91.91670631504718</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="M28" t="n">
-        <v>91.91670631504718</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="N28" t="n">
-        <v>91.91670631504718</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="O28" t="n">
-        <v>266.1625141760092</v>
+        <v>210.1625072761042</v>
       </c>
       <c r="P28" t="n">
-        <v>266.1625141760092</v>
+        <v>210.1625072761042</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.1625141760092</v>
+        <v>256.208272701325</v>
       </c>
       <c r="R28" t="n">
-        <v>266.1625141760092</v>
+        <v>266.1625141760084</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9874698909793</v>
+        <v>243.9874698909786</v>
       </c>
       <c r="T28" t="n">
-        <v>233.6068558239874</v>
+        <v>233.6068558239868</v>
       </c>
       <c r="U28" t="n">
-        <v>157.675738203215</v>
+        <v>157.6757382032146</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7320365259939</v>
+        <v>125.7320365259935</v>
       </c>
       <c r="W28" t="n">
-        <v>48.13006019737335</v>
+        <v>48.13006019737311</v>
       </c>
       <c r="X28" t="n">
-        <v>39.61015627389705</v>
+        <v>39.61015627389692</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514206</v>
       </c>
     </row>
     <row r="29">
@@ -6440,49 +6440,49 @@
         <v>1020.898422489611</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7966579874106</v>
+        <v>882.7966579874111</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2538204942527</v>
+        <v>757.2538204942533</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6637583350252</v>
+        <v>597.6637583350259</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0329511471339</v>
+        <v>406.0329511471346</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6052517141566</v>
+        <v>198.6052517141574</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71974859845022</v>
+        <v>63.71974859845014</v>
       </c>
       <c r="I29" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="J29" t="n">
         <v>171.252799658955</v>
       </c>
       <c r="K29" t="n">
-        <v>375.942782452878</v>
+        <v>375.9427824528781</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0135279523992</v>
+        <v>634.013527952399</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2253300581074</v>
+        <v>926.2253300581073</v>
       </c>
       <c r="N29" t="n">
         <v>1212.903126212561</v>
       </c>
       <c r="O29" t="n">
-        <v>1458.47366392399</v>
+        <v>1458.473663923989</v>
       </c>
       <c r="P29" t="n">
         <v>1654.882514315173</v>
       </c>
       <c r="Q29" t="n">
-        <v>1777.417797666885</v>
+        <v>1777.417797666886</v>
       </c>
       <c r="R29" t="n">
         <v>1795.834970757103</v>
@@ -6491,16 +6491,16 @@
         <v>1781.660986883924</v>
       </c>
       <c r="T29" t="n">
-        <v>1772.58913751441</v>
+        <v>1772.589137514411</v>
       </c>
       <c r="U29" t="n">
         <v>1735.552985020826</v>
       </c>
       <c r="V29" t="n">
-        <v>1627.073153621683</v>
+        <v>1627.073153621684</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.404756347172</v>
+        <v>1501.404756347173</v>
       </c>
       <c r="X29" t="n">
         <v>1353.629035366662</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>530.6877358154518</v>
+        <v>209.4799032937276</v>
       </c>
       <c r="C30" t="n">
-        <v>530.6877358154518</v>
+        <v>209.4799032937276</v>
       </c>
       <c r="D30" t="n">
-        <v>369.9076195764835</v>
+        <v>209.4799032937276</v>
       </c>
       <c r="E30" t="n">
-        <v>196.344415697898</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="F30" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="G30" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="H30" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="I30" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="J30" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="K30" t="n">
-        <v>73.88002543102247</v>
+        <v>73.88002543102243</v>
       </c>
       <c r="L30" t="n">
-        <v>191.2129445593966</v>
+        <v>191.2129445593965</v>
       </c>
       <c r="M30" t="n">
-        <v>372.8895911634021</v>
+        <v>372.889591163402</v>
       </c>
       <c r="N30" t="n">
-        <v>577.7945675741614</v>
+        <v>577.7945675741612</v>
       </c>
       <c r="O30" t="n">
-        <v>709.4955071931959</v>
+        <v>709.4955071931956</v>
       </c>
       <c r="P30" t="n">
-        <v>793.1206204512958</v>
+        <v>793.1206204512955</v>
       </c>
       <c r="Q30" t="n">
-        <v>793.1206204512958</v>
+        <v>786.1817761339611</v>
       </c>
       <c r="R30" t="n">
-        <v>793.1206204512958</v>
+        <v>786.1817761339611</v>
       </c>
       <c r="S30" t="n">
-        <v>793.1206204512958</v>
+        <v>786.1817761339611</v>
       </c>
       <c r="T30" t="n">
-        <v>791.6194355204985</v>
+        <v>784.6805912031639</v>
       </c>
       <c r="U30" t="n">
-        <v>767.6362850428343</v>
+        <v>545.056278580044</v>
       </c>
       <c r="V30" t="n">
-        <v>740.1977290919239</v>
+        <v>517.6177226291337</v>
       </c>
       <c r="W30" t="n">
-        <v>686.4403219676707</v>
+        <v>463.8603155048806</v>
       </c>
       <c r="X30" t="n">
-        <v>682.5734897298225</v>
+        <v>244.352321121577</v>
       </c>
       <c r="Y30" t="n">
-        <v>530.6877358154518</v>
+        <v>234.3527902023603</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="C31" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="D31" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="E31" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="F31" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="G31" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="H31" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="I31" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="J31" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="K31" t="n">
-        <v>35.91669941514207</v>
+        <v>76.68866776826155</v>
       </c>
       <c r="L31" t="n">
-        <v>35.91669941514207</v>
+        <v>256.2082727013255</v>
       </c>
       <c r="M31" t="n">
-        <v>35.91669941514207</v>
+        <v>256.2082727013255</v>
       </c>
       <c r="N31" t="n">
-        <v>35.91669941514207</v>
+        <v>256.2082727013255</v>
       </c>
       <c r="O31" t="n">
-        <v>35.91669941514207</v>
+        <v>256.2082727013255</v>
       </c>
       <c r="P31" t="n">
-        <v>189.3727895226567</v>
+        <v>256.2082727013255</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.1625141760094</v>
+        <v>256.2082727013255</v>
       </c>
       <c r="R31" t="n">
-        <v>266.1625141760094</v>
+        <v>266.1625141760088</v>
       </c>
       <c r="S31" t="n">
-        <v>243.9874698909795</v>
+        <v>243.987469890979</v>
       </c>
       <c r="T31" t="n">
-        <v>233.6068558239875</v>
+        <v>233.6068558239871</v>
       </c>
       <c r="U31" t="n">
-        <v>157.6757382032151</v>
+        <v>157.6757382032148</v>
       </c>
       <c r="V31" t="n">
-        <v>125.732036525994</v>
+        <v>125.7320365259937</v>
       </c>
       <c r="W31" t="n">
-        <v>48.13006019737341</v>
+        <v>48.13006019737323</v>
       </c>
       <c r="X31" t="n">
-        <v>39.61015627389708</v>
+        <v>39.61015627389698</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514206</v>
       </c>
     </row>
     <row r="32">
@@ -6674,64 +6674,64 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1014.789988510277</v>
+        <v>1014.789988510278</v>
       </c>
       <c r="C32" t="n">
-        <v>877.5242945806677</v>
+        <v>877.5242945806682</v>
       </c>
       <c r="D32" t="n">
-        <v>752.8175276600999</v>
+        <v>752.8175276601005</v>
       </c>
       <c r="E32" t="n">
-        <v>594.0635360734626</v>
+        <v>594.0635360734632</v>
       </c>
       <c r="F32" t="n">
-        <v>403.2687994581613</v>
+        <v>403.2687994581624</v>
       </c>
       <c r="G32" t="n">
-        <v>196.6771705977749</v>
+        <v>196.6771705977753</v>
       </c>
       <c r="H32" t="n">
-        <v>62.62773805465899</v>
+        <v>62.62773805465892</v>
       </c>
       <c r="I32" t="n">
-        <v>35.66075944394099</v>
+        <v>35.66075944394098</v>
       </c>
       <c r="J32" t="n">
         <v>171.8162924559495</v>
       </c>
       <c r="K32" t="n">
-        <v>377.3257080180681</v>
+        <v>377.3257080180682</v>
       </c>
       <c r="L32" t="n">
-        <v>636.2158862857848</v>
+        <v>636.215886285785</v>
       </c>
       <c r="M32" t="n">
-        <v>929.2471211596887</v>
+        <v>929.247121159689</v>
       </c>
       <c r="N32" t="n">
-        <v>1196.828396579724</v>
+        <v>1216.744350082338</v>
       </c>
       <c r="O32" t="n">
-        <v>1443.218367059348</v>
+        <v>1463.134320561962</v>
       </c>
       <c r="P32" t="n">
         <v>1640.446650218727</v>
       </c>
       <c r="Q32" t="n">
-        <v>1763.801366338636</v>
+        <v>1763.801366338635</v>
       </c>
       <c r="R32" t="n">
         <v>1783.037972197049</v>
       </c>
       <c r="S32" t="n">
-        <v>1769.700058896461</v>
+        <v>1769.70005889646</v>
       </c>
       <c r="T32" t="n">
         <v>1761.464280099537</v>
       </c>
       <c r="U32" t="n">
-        <v>1725.264198178542</v>
+        <v>1725.264198178543</v>
       </c>
       <c r="V32" t="n">
         <v>1617.62043735199</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>530.4317958442507</v>
+        <v>65.84412391191916</v>
       </c>
       <c r="C33" t="n">
-        <v>530.4317958442507</v>
+        <v>35.66075944394098</v>
       </c>
       <c r="D33" t="n">
-        <v>369.6516796052824</v>
+        <v>35.66075944394098</v>
       </c>
       <c r="E33" t="n">
-        <v>196.0884757266969</v>
+        <v>35.66075944394098</v>
       </c>
       <c r="F33" t="n">
-        <v>35.66075944394099</v>
+        <v>35.66075944394098</v>
       </c>
       <c r="G33" t="n">
-        <v>35.66075944394099</v>
+        <v>35.66075944394098</v>
       </c>
       <c r="H33" t="n">
-        <v>35.66075944394099</v>
+        <v>35.66075944394098</v>
       </c>
       <c r="I33" t="n">
-        <v>35.66075944394099</v>
+        <v>35.66075944394098</v>
       </c>
       <c r="J33" t="n">
-        <v>35.66075944394099</v>
+        <v>35.66075944394098</v>
       </c>
       <c r="K33" t="n">
-        <v>73.6240854598214</v>
+        <v>73.62408545982136</v>
       </c>
       <c r="L33" t="n">
-        <v>190.9570045881956</v>
+        <v>190.9570045881955</v>
       </c>
       <c r="M33" t="n">
-        <v>372.633651192201</v>
+        <v>372.6336511922009</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5386276029603</v>
+        <v>577.5386276029601</v>
       </c>
       <c r="O33" t="n">
-        <v>709.2395672219948</v>
+        <v>709.2395672219945</v>
       </c>
       <c r="P33" t="n">
-        <v>792.8646804800948</v>
+        <v>792.8646804800944</v>
       </c>
       <c r="Q33" t="n">
-        <v>792.8646804800948</v>
+        <v>792.8646804800944</v>
       </c>
       <c r="R33" t="n">
-        <v>792.8646804800948</v>
+        <v>792.8646804800944</v>
       </c>
       <c r="S33" t="n">
-        <v>792.8646804800948</v>
+        <v>792.8646804800944</v>
       </c>
       <c r="T33" t="n">
-        <v>792.1995661218876</v>
+        <v>575.7223334038416</v>
       </c>
       <c r="U33" t="n">
-        <v>622.1498397861185</v>
+        <v>552.5752534987676</v>
       </c>
       <c r="V33" t="n">
-        <v>595.5473544077983</v>
+        <v>525.9727681204474</v>
       </c>
       <c r="W33" t="n">
-        <v>542.6260178561353</v>
+        <v>473.0514315687845</v>
       </c>
       <c r="X33" t="n">
-        <v>539.5952561908773</v>
+        <v>253.5434371854809</v>
       </c>
       <c r="Y33" t="n">
-        <v>530.4317958442507</v>
+        <v>244.3799768388542</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.66075944394099</v>
+        <v>35.66075944394098</v>
       </c>
       <c r="C34" t="n">
-        <v>35.66075944394099</v>
+        <v>35.66075944394098</v>
       </c>
       <c r="D34" t="n">
-        <v>35.66075944394099</v>
+        <v>35.66075944394098</v>
       </c>
       <c r="E34" t="n">
-        <v>35.66075944394099</v>
+        <v>35.66075944394098</v>
       </c>
       <c r="F34" t="n">
-        <v>35.66075944394099</v>
+        <v>35.66075944394098</v>
       </c>
       <c r="G34" t="n">
-        <v>35.66075944394099</v>
+        <v>35.66075944394098</v>
       </c>
       <c r="H34" t="n">
-        <v>35.66075944394099</v>
+        <v>35.66075944394098</v>
       </c>
       <c r="I34" t="n">
-        <v>35.66075944394099</v>
+        <v>35.66075944394098</v>
       </c>
       <c r="J34" t="n">
-        <v>35.66075944394099</v>
+        <v>35.66075944394098</v>
       </c>
       <c r="K34" t="n">
-        <v>35.66075944394099</v>
+        <v>35.66075944394098</v>
       </c>
       <c r="L34" t="n">
-        <v>35.66075944394099</v>
+        <v>35.66075944394098</v>
       </c>
       <c r="M34" t="n">
-        <v>35.66075944394099</v>
+        <v>35.66075944394098</v>
       </c>
       <c r="N34" t="n">
-        <v>84.98883956751959</v>
+        <v>231.4751394353091</v>
       </c>
       <c r="O34" t="n">
-        <v>260.0540801966771</v>
+        <v>231.4751394353091</v>
       </c>
       <c r="P34" t="n">
-        <v>260.0540801966771</v>
+        <v>260.0540801966768</v>
       </c>
       <c r="Q34" t="n">
-        <v>260.0540801966771</v>
+        <v>260.0540801966768</v>
       </c>
       <c r="R34" t="n">
-        <v>260.0540801966771</v>
+        <v>260.0540801966768</v>
       </c>
       <c r="S34" t="n">
-        <v>238.7151064842374</v>
+        <v>238.7151064842371</v>
       </c>
       <c r="T34" t="n">
-        <v>229.1705629898356</v>
+        <v>229.1705629898353</v>
       </c>
       <c r="U34" t="n">
-        <v>154.0755159416534</v>
+        <v>154.0755159416532</v>
       </c>
       <c r="V34" t="n">
-        <v>122.9678848370224</v>
+        <v>122.9678848370222</v>
       </c>
       <c r="W34" t="n">
-        <v>46.20197908099199</v>
+        <v>46.20197908099187</v>
       </c>
       <c r="X34" t="n">
-        <v>38.51814573010583</v>
+        <v>38.51814573010576</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.66075944394099</v>
+        <v>35.66075944394098</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0190675361097</v>
+        <v>623.019067536109</v>
       </c>
       <c r="C35" t="n">
-        <v>544.083381551352</v>
+        <v>544.0833815513513</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7066225756363</v>
+        <v>477.7066225756357</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2826389338511</v>
+        <v>377.2826389338504</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8179102634022</v>
+        <v>244.8179102634012</v>
       </c>
       <c r="G35" t="n">
         <v>96.55628934786677</v>
@@ -6932,55 +6932,55 @@
         <v>20.83686474960229</v>
       </c>
       <c r="I35" t="n">
-        <v>51.57576979998706</v>
+        <v>51.57576979998704</v>
       </c>
       <c r="J35" t="n">
-        <v>222.5977461022295</v>
+        <v>244.900543598745</v>
       </c>
       <c r="K35" t="n">
-        <v>222.5977461022295</v>
+        <v>244.900543598745</v>
       </c>
       <c r="L35" t="n">
-        <v>269.3185885829897</v>
+        <v>373.3997200350183</v>
       </c>
       <c r="M35" t="n">
-        <v>350.1804876699371</v>
+        <v>454.2616191219656</v>
       </c>
       <c r="N35" t="n">
-        <v>425.5083808056295</v>
+        <v>529.5895122576579</v>
       </c>
       <c r="O35" t="n">
-        <v>459.7290154982974</v>
+        <v>787.4457135339862</v>
       </c>
       <c r="P35" t="n">
-        <v>714.1265394444256</v>
+        <v>1041.843237480114</v>
       </c>
       <c r="Q35" t="n">
-        <v>894.6504963510839</v>
+        <v>1041.843237480114</v>
       </c>
       <c r="R35" t="n">
-        <v>971.0563429962468</v>
+        <v>1041.843237480114</v>
       </c>
       <c r="S35" t="n">
-        <v>971.0563429962468</v>
+        <v>1041.843237480114</v>
       </c>
       <c r="T35" t="n">
-        <v>1020.153696984132</v>
+        <v>1041.843237480114</v>
       </c>
       <c r="U35" t="n">
-        <v>1041.843237480115</v>
+        <v>1041.843237480114</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5294845984141</v>
+        <v>992.5294845984135</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0271658413453</v>
+        <v>926.0271658413446</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4175233782772</v>
+        <v>837.4175233782765</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0777262447609</v>
+        <v>726.0777262447601</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>200.8476677492757</v>
+        <v>210.2491390166386</v>
       </c>
       <c r="C36" t="n">
-        <v>200.8476677492757</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="D36" t="n">
-        <v>200.8476677492757</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="E36" t="n">
-        <v>200.8476677492757</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="F36" t="n">
-        <v>200.8476677492757</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="G36" t="n">
-        <v>200.8476677492757</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="H36" t="n">
-        <v>73.8420873596049</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I36" t="n">
-        <v>73.8420873596049</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J36" t="n">
         <v>20.83686474960229</v>
       </c>
       <c r="K36" t="n">
-        <v>58.8001907654827</v>
+        <v>58.80019076548267</v>
       </c>
       <c r="L36" t="n">
         <v>176.1331098938568</v>
       </c>
       <c r="M36" t="n">
-        <v>357.8097564978623</v>
+        <v>357.8097564978622</v>
       </c>
       <c r="N36" t="n">
-        <v>562.7147329086215</v>
+        <v>562.7147329086214</v>
       </c>
       <c r="O36" t="n">
-        <v>694.4156725276559</v>
+        <v>694.4156725276558</v>
       </c>
       <c r="P36" t="n">
-        <v>778.0407857857559</v>
+        <v>778.0407857857557</v>
       </c>
       <c r="Q36" t="n">
-        <v>778.0407857857559</v>
+        <v>778.0407857857557</v>
       </c>
       <c r="R36" t="n">
-        <v>778.0407857857559</v>
+        <v>778.0407857857557</v>
       </c>
       <c r="S36" t="n">
-        <v>659.9799747556992</v>
+        <v>608.2929863268773</v>
       </c>
       <c r="T36" t="n">
-        <v>659.9799747556992</v>
+        <v>608.2929863268773</v>
       </c>
       <c r="U36" t="n">
-        <v>420.3556621325794</v>
+        <v>608.2929863268773</v>
       </c>
       <c r="V36" t="n">
-        <v>420.3556621325794</v>
+        <v>608.2929863268773</v>
       </c>
       <c r="W36" t="n">
-        <v>420.3556621325794</v>
+        <v>608.2929863268773</v>
       </c>
       <c r="X36" t="n">
-        <v>200.8476677492757</v>
+        <v>388.7849919435737</v>
       </c>
       <c r="Y36" t="n">
-        <v>200.8476677492757</v>
+        <v>388.7849919435737</v>
       </c>
     </row>
     <row r="37">
@@ -7093,34 +7093,34 @@
         <v>20.83686474960229</v>
       </c>
       <c r="J37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="K37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="L37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="M37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="N37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="O37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="T37" t="n">
         <v>56.03780166411086</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0190675361098</v>
+        <v>623.0190675361096</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0833815513521</v>
+        <v>544.0833815513519</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7066225756363</v>
+        <v>477.7066225756361</v>
       </c>
       <c r="E38" t="n">
-        <v>377.282638933851</v>
+        <v>377.2826389338508</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8179102634018</v>
+        <v>244.8179102634015</v>
       </c>
       <c r="G38" t="n">
         <v>96.55628934786677</v>
@@ -7169,55 +7169,55 @@
         <v>20.83686474960229</v>
       </c>
       <c r="I38" t="n">
-        <v>51.57576979998706</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J38" t="n">
-        <v>244.900543598745</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="K38" t="n">
-        <v>432.8985180875155</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="L38" t="n">
-        <v>479.6193605682757</v>
+        <v>278.6930660259306</v>
       </c>
       <c r="M38" t="n">
-        <v>560.4812596552231</v>
+        <v>484.038434200593</v>
       </c>
       <c r="N38" t="n">
-        <v>635.8091527909155</v>
+        <v>559.3663273362854</v>
       </c>
       <c r="O38" t="n">
-        <v>670.0297874835833</v>
+        <v>817.2225286126137</v>
       </c>
       <c r="P38" t="n">
-        <v>670.0297874835833</v>
+        <v>817.2225286126137</v>
       </c>
       <c r="Q38" t="n">
-        <v>850.5537443902416</v>
+        <v>997.746485519272</v>
       </c>
       <c r="R38" t="n">
-        <v>926.9595910354045</v>
+        <v>997.746485519272</v>
       </c>
       <c r="S38" t="n">
-        <v>971.0563429962468</v>
+        <v>1041.843237480114</v>
       </c>
       <c r="T38" t="n">
-        <v>1020.153696984132</v>
+        <v>1041.843237480114</v>
       </c>
       <c r="U38" t="n">
-        <v>1041.843237480115</v>
+        <v>1041.843237480114</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5294845984142</v>
+        <v>992.529484598414</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0271658413453</v>
+        <v>926.0271658413451</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4175233782772</v>
+        <v>837.417523378277</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0777262447609</v>
+        <v>726.0777262447607</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>534.8385879106172</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="C39" t="n">
-        <v>534.8385879106172</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="D39" t="n">
-        <v>534.8385879106172</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="E39" t="n">
-        <v>361.2753840320316</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="F39" t="n">
-        <v>200.8476677492757</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="G39" t="n">
-        <v>200.8476677492757</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="H39" t="n">
-        <v>73.8420873596049</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I39" t="n">
-        <v>73.8420873596049</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J39" t="n">
         <v>20.83686474960229</v>
       </c>
       <c r="K39" t="n">
-        <v>58.8001907654827</v>
+        <v>58.80019076548267</v>
       </c>
       <c r="L39" t="n">
         <v>176.1331098938568</v>
       </c>
       <c r="M39" t="n">
-        <v>357.8097564978623</v>
+        <v>357.8097564978622</v>
       </c>
       <c r="N39" t="n">
-        <v>562.7147329086215</v>
+        <v>562.7147329086214</v>
       </c>
       <c r="O39" t="n">
-        <v>694.4156725276559</v>
+        <v>694.4156725276558</v>
       </c>
       <c r="P39" t="n">
-        <v>778.0407857857559</v>
+        <v>778.0407857857557</v>
       </c>
       <c r="Q39" t="n">
-        <v>771.1019414684216</v>
+        <v>778.0407857857557</v>
       </c>
       <c r="R39" t="n">
-        <v>635.0213346107674</v>
+        <v>641.9601789281015</v>
       </c>
       <c r="S39" t="n">
-        <v>534.8385879106172</v>
+        <v>641.9601789281015</v>
       </c>
       <c r="T39" t="n">
-        <v>534.8385879106172</v>
+        <v>424.8178318518487</v>
       </c>
       <c r="U39" t="n">
-        <v>534.8385879106172</v>
+        <v>424.8178318518487</v>
       </c>
       <c r="V39" t="n">
-        <v>534.8385879106172</v>
+        <v>199.3727176765374</v>
       </c>
       <c r="W39" t="n">
-        <v>534.8385879106172</v>
+        <v>199.3727176765374</v>
       </c>
       <c r="X39" t="n">
-        <v>534.8385879106172</v>
+        <v>199.3727176765374</v>
       </c>
       <c r="Y39" t="n">
-        <v>534.8385879106172</v>
+        <v>199.3727176765374</v>
       </c>
     </row>
     <row r="40">
@@ -7351,10 +7351,10 @@
         <v>20.83686474960229</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="S40" t="n">
         <v>56.03780166411086</v>
@@ -7385,64 +7385,64 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.4263542753165</v>
+        <v>818.4263542753163</v>
       </c>
       <c r="C41" t="n">
-        <v>708.1276389564247</v>
+        <v>708.1276389564246</v>
       </c>
       <c r="D41" t="n">
-        <v>610.3878506465751</v>
+        <v>610.3878506465749</v>
       </c>
       <c r="E41" t="n">
-        <v>478.6008376706557</v>
+        <v>478.6008376706554</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7730796660726</v>
+        <v>314.7730796660722</v>
       </c>
       <c r="G41" t="n">
         <v>135.1484294164039</v>
       </c>
       <c r="H41" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="I41" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="J41" t="n">
-        <v>190.6518442323786</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="K41" t="n">
-        <v>422.5915955308619</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="L41" t="n">
-        <v>523.4617675668866</v>
+        <v>313.3864894880868</v>
       </c>
       <c r="M41" t="n">
-        <v>604.3236666538339</v>
+        <v>592.8922844295216</v>
       </c>
       <c r="N41" t="n">
-        <v>679.6515597895263</v>
+        <v>906.8198490885353</v>
       </c>
       <c r="O41" t="n">
-        <v>952.4718660055154</v>
+        <v>1179.640155304524</v>
       </c>
       <c r="P41" t="n">
-        <v>1176.130484901259</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="Q41" t="n">
-        <v>1325.915536757532</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="R41" t="n">
-        <v>1371.582478352311</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="S41" t="n">
-        <v>1384.940325262768</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="T41" t="n">
         <v>1403.298774200268</v>
       </c>
       <c r="U41" t="n">
-        <v>1394.065670889992</v>
+        <v>1394.065670889991</v>
       </c>
       <c r="V41" t="n">
         <v>1313.388888674157</v>
@@ -7454,7 +7454,7 @@
         <v>1095.550868785752</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.8480423181016</v>
+        <v>952.8480423181014</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>358.3238537105746</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="C42" t="n">
-        <v>358.3238537105746</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="D42" t="n">
-        <v>358.3238537105746</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="E42" t="n">
-        <v>358.3238537105746</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="F42" t="n">
-        <v>358.3238537105746</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="G42" t="n">
-        <v>208.0767784836788</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="H42" t="n">
-        <v>81.07119809400797</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="I42" t="n">
-        <v>81.07119809400797</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="J42" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="K42" t="n">
-        <v>66.02930149988578</v>
+        <v>66.02930149988573</v>
       </c>
       <c r="L42" t="n">
-        <v>183.3622206282599</v>
+        <v>183.3622206282598</v>
       </c>
       <c r="M42" t="n">
-        <v>365.0388672322654</v>
+        <v>365.0388672322653</v>
       </c>
       <c r="N42" t="n">
-        <v>569.9438436430246</v>
+        <v>569.9438436430245</v>
       </c>
       <c r="O42" t="n">
-        <v>701.644783262059</v>
+        <v>701.6447832620589</v>
       </c>
       <c r="P42" t="n">
-        <v>785.269896520159</v>
+        <v>785.2698965201588</v>
       </c>
       <c r="Q42" t="n">
-        <v>778.3310522028247</v>
+        <v>785.2698965201588</v>
       </c>
       <c r="R42" t="n">
-        <v>778.3310522028247</v>
+        <v>785.2698965201588</v>
       </c>
       <c r="S42" t="n">
-        <v>778.3310522028247</v>
+        <v>591.7438446817706</v>
       </c>
       <c r="T42" t="n">
-        <v>778.3310522028247</v>
+        <v>374.6014976055178</v>
       </c>
       <c r="U42" t="n">
-        <v>778.3310522028247</v>
+        <v>374.6014976055178</v>
       </c>
       <c r="V42" t="n">
-        <v>778.3310522028247</v>
+        <v>297.4645447537141</v>
       </c>
       <c r="W42" t="n">
-        <v>508.932482933116</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="X42" t="n">
-        <v>358.3238537105746</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="Y42" t="n">
-        <v>358.3238537105746</v>
+        <v>28.06597548400536</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="C43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="D43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="E43" t="n">
-        <v>28.06597548400537</v>
+        <v>126.4062672072239</v>
       </c>
       <c r="F43" t="n">
-        <v>28.06597548400537</v>
+        <v>126.4062672072239</v>
       </c>
       <c r="G43" t="n">
-        <v>28.06597548400537</v>
+        <v>126.4062672072239</v>
       </c>
       <c r="H43" t="n">
-        <v>28.06597548400537</v>
+        <v>126.4062672072239</v>
       </c>
       <c r="I43" t="n">
-        <v>28.06597548400537</v>
+        <v>126.4062672072239</v>
       </c>
       <c r="J43" t="n">
-        <v>28.06597548400537</v>
+        <v>126.4062672072239</v>
       </c>
       <c r="K43" t="n">
-        <v>28.06597548400537</v>
+        <v>126.4062672072239</v>
       </c>
       <c r="L43" t="n">
-        <v>28.06597548400537</v>
+        <v>126.4062672072239</v>
       </c>
       <c r="M43" t="n">
-        <v>28.06597548400537</v>
+        <v>126.4062672072239</v>
       </c>
       <c r="N43" t="n">
-        <v>28.06597548400537</v>
+        <v>126.4062672072239</v>
       </c>
       <c r="O43" t="n">
-        <v>130.1336235606951</v>
+        <v>126.4062672072239</v>
       </c>
       <c r="P43" t="n">
-        <v>130.1336235606951</v>
+        <v>126.4062672072239</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.1336235606951</v>
+        <v>126.4062672072239</v>
       </c>
       <c r="R43" t="n">
-        <v>130.1336235606951</v>
+        <v>126.4062672072239</v>
       </c>
       <c r="S43" t="n">
-        <v>130.1336235606951</v>
+        <v>130.133623560695</v>
       </c>
       <c r="T43" t="n">
-        <v>130.1336235606951</v>
+        <v>130.133623560695</v>
       </c>
       <c r="U43" t="n">
-        <v>82.00555512323083</v>
+        <v>82.00555512323076</v>
       </c>
       <c r="V43" t="n">
-        <v>77.86490262931781</v>
+        <v>77.86490262931777</v>
       </c>
       <c r="W43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="X43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
     </row>
     <row r="44">
@@ -7625,49 +7625,49 @@
         <v>818.4263542753171</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1276389564255</v>
+        <v>708.1276389564252</v>
       </c>
       <c r="D44" t="n">
-        <v>610.3878506465755</v>
+        <v>610.3878506465753</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6008376706559</v>
+        <v>478.6008376706556</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7730796660725</v>
+        <v>314.7730796660722</v>
       </c>
       <c r="G44" t="n">
         <v>135.1484294164039</v>
       </c>
       <c r="H44" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="I44" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="J44" t="n">
-        <v>28.06597548400537</v>
+        <v>190.6518442323785</v>
       </c>
       <c r="K44" t="n">
-        <v>31.25787788744162</v>
+        <v>422.5915955308618</v>
       </c>
       <c r="L44" t="n">
-        <v>316.5783918915231</v>
+        <v>469.3124380116219</v>
       </c>
       <c r="M44" t="n">
-        <v>636.0399625017917</v>
+        <v>681.7069040965696</v>
       </c>
       <c r="N44" t="n">
-        <v>949.9675271608054</v>
+        <v>995.6344687555832</v>
       </c>
       <c r="O44" t="n">
-        <v>984.1881618534732</v>
+        <v>1029.855103448251</v>
       </c>
       <c r="P44" t="n">
-        <v>1207.846780749217</v>
+        <v>1253.513722343994</v>
       </c>
       <c r="Q44" t="n">
-        <v>1357.63183260549</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="R44" t="n">
         <v>1403.298774200268</v>
@@ -7682,7 +7682,7 @@
         <v>1394.065670889992</v>
       </c>
       <c r="V44" t="n">
-        <v>1313.388888674158</v>
+        <v>1313.388888674157</v>
       </c>
       <c r="W44" t="n">
         <v>1215.523540582955</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>362.4092956015592</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="C45" t="n">
-        <v>362.4092956015592</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="D45" t="n">
-        <v>201.6291793625909</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="E45" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="F45" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="G45" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="H45" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="I45" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="J45" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="K45" t="n">
-        <v>66.02930149988578</v>
+        <v>66.02930149988573</v>
       </c>
       <c r="L45" t="n">
-        <v>183.3622206282599</v>
+        <v>183.3622206282598</v>
       </c>
       <c r="M45" t="n">
-        <v>365.0388672322654</v>
+        <v>365.0388672322653</v>
       </c>
       <c r="N45" t="n">
-        <v>569.9438436430246</v>
+        <v>569.9438436430245</v>
       </c>
       <c r="O45" t="n">
-        <v>701.644783262059</v>
+        <v>701.6447832620589</v>
       </c>
       <c r="P45" t="n">
-        <v>785.2698965201589</v>
+        <v>785.2698965201588</v>
       </c>
       <c r="Q45" t="n">
-        <v>785.2698965201589</v>
+        <v>785.2698965201588</v>
       </c>
       <c r="R45" t="n">
-        <v>785.2698965201589</v>
+        <v>706.678692269762</v>
       </c>
       <c r="S45" t="n">
-        <v>605.5060006187571</v>
+        <v>513.1526404313738</v>
       </c>
       <c r="T45" t="n">
-        <v>388.3636535425042</v>
+        <v>513.1526404313738</v>
       </c>
       <c r="U45" t="n">
-        <v>388.3636535425042</v>
+        <v>273.528327808254</v>
       </c>
       <c r="V45" t="n">
-        <v>388.3636535425042</v>
+        <v>273.528327808254</v>
       </c>
       <c r="W45" t="n">
-        <v>362.4092956015592</v>
+        <v>247.573969867309</v>
       </c>
       <c r="X45" t="n">
-        <v>362.4092956015592</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="Y45" t="n">
-        <v>362.4092956015592</v>
+        <v>28.06597548400536</v>
       </c>
     </row>
     <row r="46">
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="C46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="D46" t="n">
-        <v>31.79333183747656</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="E46" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="F46" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="G46" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="H46" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="I46" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="J46" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="K46" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="L46" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="M46" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="N46" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="O46" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="P46" t="n">
-        <v>130.1336235606951</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="Q46" t="n">
         <v>130.1336235606951</v>
@@ -7837,19 +7837,19 @@
         <v>130.1336235606951</v>
       </c>
       <c r="U46" t="n">
-        <v>82.00555512323083</v>
+        <v>82.00555512323082</v>
       </c>
       <c r="V46" t="n">
-        <v>77.86490262931781</v>
+        <v>77.8649026293178</v>
       </c>
       <c r="W46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="X46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400536</v>
       </c>
     </row>
   </sheetData>
@@ -8532,13 +8532,13 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>168.166555548718</v>
+        <v>171.3658051887314</v>
       </c>
       <c r="L9" t="n">
-        <v>169.0363433314465</v>
+        <v>172.1063303597423</v>
       </c>
       <c r="M9" t="n">
-        <v>176.4735084131581</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N9" t="n">
         <v>163.4361383816801</v>
@@ -8547,7 +8547,7 @@
         <v>177.1666678622357</v>
       </c>
       <c r="P9" t="n">
-        <v>166.6480266854964</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -9252,7 +9252,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>292.1370682466383</v>
+        <v>292.1370682466384</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
@@ -9480,7 +9480,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>171.3734735841509</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
@@ -9489,7 +9489,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>292.1370682466383</v>
+        <v>292.1370682466384</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
@@ -9726,7 +9726,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1370682466381</v>
+        <v>292.1370682466384</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -23258,22 +23258,22 @@
         <v>195.9389762247655</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>172.057233228111</v>
       </c>
       <c r="D11" t="n">
         <v>159.6238954891595</v>
       </c>
       <c r="E11" t="n">
-        <v>193.3306479085683</v>
+        <v>4.832714589321228</v>
       </c>
       <c r="F11" t="n">
-        <v>111.6920654333334</v>
+        <v>36.55305216769855</v>
       </c>
       <c r="G11" t="n">
-        <v>52.19197549033353</v>
+        <v>240.6899088095807</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>168.8731344554828</v>
       </c>
       <c r="I11" t="n">
         <v>62.86150506240821</v>
@@ -23303,16 +23303,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.73328122929903</v>
       </c>
       <c r="S11" t="n">
-        <v>49.36873040538035</v>
+        <v>49.36873040538038</v>
       </c>
       <c r="T11" t="n">
-        <v>44.31761724675141</v>
+        <v>44.31761724675145</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>72.00227733958195</v>
       </c>
       <c r="V11" t="n">
         <v>142.7315194560842</v>
@@ -23321,10 +23321,10 @@
         <v>159.7481996726991</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6344501416383</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.1373032653821</v>
+        <v>31.24484042018049</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.9389762247655</v>
+        <v>7.441042905518287</v>
       </c>
       <c r="C14" t="n">
         <v>172.057233228111</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6238954891595</v>
+        <v>159.6238954891594</v>
       </c>
       <c r="E14" t="n">
-        <v>193.3306479085683</v>
+        <v>4.832714589321114</v>
       </c>
       <c r="F14" t="n">
         <v>225.0509854869456</v>
       </c>
       <c r="G14" t="n">
-        <v>113.1092611061983</v>
+        <v>240.6899088095807</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>168.8731344554827</v>
       </c>
       <c r="I14" t="n">
-        <v>62.86150506240821</v>
+        <v>62.86150506240818</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.73328122929901</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00227733958192</v>
+        <v>9.529443375810981</v>
       </c>
       <c r="V14" t="n">
         <v>142.7315194560842</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>159.748199672699</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.1373032653821</v>
+        <v>204.137303265382</v>
       </c>
     </row>
     <row r="15">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1251977.205889054</v>
+        <v>1251977.205889055</v>
       </c>
     </row>
     <row r="6">
@@ -26320,25 +26320,25 @@
         <v>110305.1644648937</v>
       </c>
       <c r="E2" t="n">
-        <v>94966.92859364186</v>
+        <v>94966.92859364185</v>
       </c>
       <c r="F2" t="n">
-        <v>94966.92859364182</v>
+        <v>94966.92859364183</v>
       </c>
       <c r="G2" t="n">
         <v>110464.818607317</v>
       </c>
       <c r="H2" t="n">
-        <v>110464.818607317</v>
+        <v>110464.8186073169</v>
       </c>
       <c r="I2" t="n">
         <v>110464.818607317</v>
       </c>
       <c r="J2" t="n">
+        <v>110464.818607317</v>
+      </c>
+      <c r="K2" t="n">
         <v>110464.8186073171</v>
-      </c>
-      <c r="K2" t="n">
-        <v>110464.818607317</v>
       </c>
       <c r="L2" t="n">
         <v>110464.818607317</v>
@@ -26350,10 +26350,10 @@
         <v>110464.818607317</v>
       </c>
       <c r="O2" t="n">
+        <v>110464.8186073171</v>
+      </c>
+      <c r="P2" t="n">
         <v>110464.818607317</v>
-      </c>
-      <c r="P2" t="n">
-        <v>110464.8186073171</v>
       </c>
     </row>
     <row r="3">
@@ -26375,13 +26375,13 @@
         <v>279126.1151787142</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>95439.52541913326</v>
+        <v>95439.52541913325</v>
       </c>
       <c r="H3" t="n">
-        <v>9.094947017729282e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96101.69331262469</v>
+        <v>96101.69331262464</v>
       </c>
       <c r="M3" t="n">
-        <v>46197.36629232288</v>
+        <v>46197.36629232275</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72254.91485924367</v>
+        <v>72254.91485924387</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>398288.6216966739</v>
       </c>
       <c r="E4" t="n">
-        <v>284613.7444428301</v>
+        <v>284613.74444283</v>
       </c>
       <c r="F4" t="n">
         <v>284613.7444428301</v>
@@ -26433,10 +26433,10 @@
         <v>355221.6124860519</v>
       </c>
       <c r="H4" t="n">
-        <v>355221.612486052</v>
+        <v>355221.6124860519</v>
       </c>
       <c r="I4" t="n">
-        <v>355221.612486052</v>
+        <v>355221.6124860519</v>
       </c>
       <c r="J4" t="n">
         <v>355970.6392489283</v>
@@ -26445,10 +26445,10 @@
         <v>355970.6392489283</v>
       </c>
       <c r="L4" t="n">
-        <v>355955.8492815496</v>
+        <v>355955.8492815497</v>
       </c>
       <c r="M4" t="n">
-        <v>355145.9119082311</v>
+        <v>355145.9119082312</v>
       </c>
       <c r="N4" t="n">
         <v>355145.9119082312</v>
@@ -26457,7 +26457,7 @@
         <v>355532.9745719488</v>
       </c>
       <c r="P4" t="n">
-        <v>355532.9745719489</v>
+        <v>355532.9745719488</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>33822.11437811282</v>
       </c>
       <c r="E5" t="n">
-        <v>28642.95693774779</v>
+        <v>28642.95693774778</v>
       </c>
       <c r="F5" t="n">
         <v>28642.95693774779</v>
@@ -26485,13 +26485,13 @@
         <v>38672.33876582418</v>
       </c>
       <c r="H5" t="n">
-        <v>38672.33876582419</v>
+        <v>38672.33876582418</v>
       </c>
       <c r="I5" t="n">
         <v>38672.33876582418</v>
       </c>
       <c r="J5" t="n">
-        <v>47449.67722016352</v>
+        <v>47449.67722016351</v>
       </c>
       <c r="K5" t="n">
         <v>47449.6772201635</v>
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-321889.2174289177</v>
+        <v>-321893.6838131229</v>
       </c>
       <c r="C6" t="n">
-        <v>-321889.2174289177</v>
+        <v>-321893.683813123</v>
       </c>
       <c r="D6" t="n">
-        <v>-322799.3545255704</v>
+        <v>-322802.5476084188</v>
       </c>
       <c r="E6" t="n">
-        <v>-497415.8879656502</v>
+        <v>-497725.8457659236</v>
       </c>
       <c r="F6" t="n">
-        <v>-218289.7727869361</v>
+        <v>-218599.7305872096</v>
       </c>
       <c r="G6" t="n">
         <v>-378868.6580636924</v>
       </c>
       <c r="H6" t="n">
-        <v>-283429.1326445593</v>
+        <v>-283429.1326445591</v>
       </c>
       <c r="I6" t="n">
         <v>-283429.1326445591</v>
       </c>
       <c r="J6" t="n">
-        <v>-436451.780868654</v>
+        <v>-436451.7808686541</v>
       </c>
       <c r="K6" t="n">
         <v>-292955.4978617748</v>
@@ -26555,10 +26555,10 @@
         <v>-331791.7551919243</v>
       </c>
       <c r="N6" t="n">
-        <v>-285594.3888996014</v>
+        <v>-285594.3888996015</v>
       </c>
       <c r="O6" t="n">
-        <v>-361120.1986527487</v>
+        <v>-361120.1986527488</v>
       </c>
       <c r="P6" t="n">
         <v>-288865.283793505</v>
@@ -26695,25 +26695,25 @@
         <v>178.1482641530678</v>
       </c>
       <c r="F2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="G2" t="n">
         <v>297.4476709269844</v>
       </c>
       <c r="H2" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="I2" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="J2" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="K2" t="n">
         <v>213.484750524001</v>
       </c>
       <c r="L2" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="M2" t="n">
         <v>272.0591682562687</v>
@@ -26762,22 +26762,22 @@
         <v>101.1713840758395</v>
       </c>
       <c r="K3" t="n">
-        <v>101.1713840758396</v>
+        <v>101.1713840758395</v>
       </c>
       <c r="L3" t="n">
-        <v>101.1713840758396</v>
+        <v>101.1713840758395</v>
       </c>
       <c r="M3" t="n">
-        <v>101.1713840758396</v>
+        <v>101.1713840758395</v>
       </c>
       <c r="N3" t="n">
-        <v>101.1713840758396</v>
+        <v>101.1713840758395</v>
       </c>
       <c r="O3" t="n">
-        <v>101.1713840758396</v>
+        <v>101.1713840758395</v>
       </c>
       <c r="P3" t="n">
-        <v>101.1713840758396</v>
+        <v>101.1713840758395</v>
       </c>
     </row>
     <row r="4">
@@ -26796,7 +26796,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="E4" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="F4" t="n">
         <v>188.4979333192472</v>
@@ -26808,16 +26808,16 @@
         <v>188.4979333192472</v>
       </c>
       <c r="I4" t="n">
-        <v>188.497933319247</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="J4" t="n">
-        <v>448.9587426892759</v>
+        <v>448.9587426892757</v>
       </c>
       <c r="K4" t="n">
-        <v>448.9587426892758</v>
+        <v>448.9587426892757</v>
       </c>
       <c r="L4" t="n">
-        <v>445.7594930492623</v>
+        <v>445.7594930492622</v>
       </c>
       <c r="M4" t="n">
         <v>260.4608093700286</v>
@@ -26826,10 +26826,10 @@
         <v>260.4608093700286</v>
       </c>
       <c r="O4" t="n">
-        <v>350.8246935500671</v>
+        <v>350.824693550067</v>
       </c>
       <c r="P4" t="n">
-        <v>350.8246935500671</v>
+        <v>350.824693550067</v>
       </c>
     </row>
   </sheetData>
@@ -26917,34 +26917,34 @@
         <v>178.1482641530678</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
         <v>119.2994067739166</v>
       </c>
       <c r="H2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.18534375008429</v>
+        <v>94.18534375008448</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>120.1271166407809</v>
+        <v>120.1271166407808</v>
       </c>
       <c r="M2" t="n">
-        <v>57.74670786540361</v>
+        <v>57.74670786540344</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13594470929155</v>
+        <v>63.13594470929181</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="E4" t="n">
-        <v>185.2986836792337</v>
+        <v>185.2986836792336</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4608093700289</v>
+        <v>260.4608093700285</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.36388418003844</v>
+        <v>90.36388418003838</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,19 +27154,19 @@
         <v>178.1482641530678</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
         <v>119.2994067739166</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.18534375008429</v>
+        <v>94.18534375008448</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="M4" t="n">
-        <v>185.2986836792337</v>
+        <v>185.2986836792336</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>236.785106778059</v>
       </c>
       <c r="T8" t="n">
-        <v>224.3762098531791</v>
+        <v>224.246294399988</v>
       </c>
       <c r="U8" t="n">
         <v>250.1830790232068</v>
@@ -27913,7 +27913,7 @@
         <v>320.879783609152</v>
       </c>
       <c r="W8" t="n">
-        <v>337.8964638257669</v>
+        <v>338.0263792789579</v>
       </c>
       <c r="X8" t="n">
         <v>359.7827142947061</v>
@@ -27947,10 +27947,10 @@
         <v>148.9622183950918</v>
       </c>
       <c r="H9" t="n">
-        <v>127.8372169228968</v>
+        <v>125.0193178399729</v>
       </c>
       <c r="I9" t="n">
-        <v>112.0379203647931</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J9" t="n">
         <v>73.03491363274843</v>
@@ -27974,10 +27974,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>31.44843229210258</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R9" t="n">
-        <v>148.2309527983001</v>
+        <v>145.0317031582867</v>
       </c>
       <c r="S9" t="n">
         <v>192.4336248079265</v>
@@ -28111,13 +28111,13 @@
         <v>178.1482641530678</v>
       </c>
       <c r="J11" t="n">
-        <v>178.1482641530678</v>
+        <v>76.78161896459405</v>
       </c>
       <c r="K11" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>74.67716539008862</v>
       </c>
       <c r="M11" t="n">
         <v>106.8192473728357</v>
@@ -28126,13 +28126,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>153.9316356498857</v>
       </c>
       <c r="P11" t="n">
-        <v>53.89760108694352</v>
+        <v>15.09197235108875</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.1482641530678</v>
+        <v>89.71173703742195</v>
       </c>
       <c r="R11" t="n">
         <v>178.1482641530678</v>
@@ -28169,7 +28169,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>178.1482641530678</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28187,10 +28187,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28214,13 +28214,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>94.06254284591375</v>
       </c>
       <c r="S12" t="n">
-        <v>102.2258497069787</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="T12" t="n">
-        <v>178.1482641530678</v>
+        <v>26.47299028624315</v>
       </c>
       <c r="U12" t="n">
         <v>178.1482641530678</v>
@@ -28245,19 +28245,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177.6169206649681</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="C13" t="n">
-        <v>166.4571809719723</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="D13" t="n">
+        <v>145.1826502507107</v>
+      </c>
+      <c r="E13" t="n">
         <v>178.1482641530678</v>
       </c>
-      <c r="E13" t="n">
-        <v>141.676141212225</v>
-      </c>
       <c r="F13" t="n">
-        <v>161.0551963721839</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="G13" t="n">
         <v>168.7007749271525</v>
@@ -28284,13 +28284,13 @@
         <v>16.52015736928134</v>
       </c>
       <c r="O13" t="n">
+        <v>76.58787360106308</v>
+      </c>
+      <c r="P13" t="n">
         <v>178.1482641530678</v>
       </c>
-      <c r="P13" t="n">
-        <v>58.47859890024887</v>
-      </c>
       <c r="Q13" t="n">
-        <v>178.1482641530678</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R13" t="n">
         <v>178.1482641530678</v>
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="C14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="E14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="G14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="H14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="I14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="J14" t="n">
-        <v>178.1482641530678</v>
+        <v>175.9847882235209</v>
       </c>
       <c r="K14" t="n">
         <v>6.727192146300958</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>141.3051631366612</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.05802066359258617</v>
+        <v>112.4091523741034</v>
       </c>
       <c r="O14" t="n">
         <v>153.9316356498858</v>
       </c>
       <c r="P14" t="n">
-        <v>178.1482641530678</v>
+        <v>15.09197235108875</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.1482641530678</v>
+        <v>89.71173703742195</v>
       </c>
       <c r="R14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="S14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="15">
@@ -28406,7 +28406,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28451,28 +28451,28 @@
         <v>6.869455874161034</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S15" t="n">
-        <v>3.092858000757133</v>
+        <v>26.73690276806602</v>
       </c>
       <c r="T15" t="n">
-        <v>110.5732192572383</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V15" t="n">
-        <v>178.1482641530678</v>
+        <v>52.15098759615506</v>
       </c>
       <c r="W15" t="n">
-        <v>178.1482641530678</v>
+        <v>78.20665025776441</v>
       </c>
       <c r="X15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="16">
@@ -28488,70 +28488,70 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>170.7664704393682</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>146.6497123347435</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>178.1482641530678</v>
+        <v>168.7007749271525</v>
       </c>
       <c r="H16" t="n">
-        <v>178.1482641530678</v>
+        <v>165.8243976546666</v>
       </c>
       <c r="I16" t="n">
-        <v>178.1482641530678</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J16" t="n">
-        <v>178.1482641530678</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K16" t="n">
-        <v>178.1482641530678</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L16" t="n">
-        <v>178.1482641530678</v>
+        <v>32.15181624817887</v>
       </c>
       <c r="M16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="N16" t="n">
-        <v>16.52015736928134</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="O16" t="n">
         <v>37.47888399777679</v>
       </c>
       <c r="P16" t="n">
-        <v>58.47859890024887</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.2169859636892</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="R16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="S16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="17">
@@ -28585,40 +28585,40 @@
         <v>241.009769215476</v>
       </c>
       <c r="J17" t="n">
-        <v>100.3570851902702</v>
+        <v>265.2795522838412</v>
       </c>
       <c r="K17" t="n">
         <v>6.727192146300958</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>17.44410140697946</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>112.4091523741034</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.09197235108875</v>
+        <v>203.589905670336</v>
       </c>
       <c r="Q17" t="n">
-        <v>278.2096703566691</v>
+        <v>89.71173703742195</v>
       </c>
       <c r="R17" t="n">
-        <v>297.4476709269844</v>
+        <v>194.8815453823668</v>
       </c>
       <c r="S17" t="n">
-        <v>297.4476709269844</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T17" t="n">
-        <v>297.4476709269844</v>
+        <v>222.4658813998192</v>
       </c>
       <c r="U17" t="n">
-        <v>297.4476709269844</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V17" t="n">
         <v>297.4476709269844</v>
@@ -28646,7 +28646,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
@@ -28664,7 +28664,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,28 +28685,28 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R18" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S18" t="n">
-        <v>3.092858000757161</v>
+        <v>3.092858000757133</v>
       </c>
       <c r="T18" t="n">
-        <v>26.47299028624312</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U18" t="n">
-        <v>101.2180978446908</v>
+        <v>48.73013617764144</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>52.15098759615506</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>51.28393477187777</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -28798,31 +28798,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="C20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="D20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="E20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="F20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="G20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="H20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="I20" t="n">
-        <v>297.4476709269845</v>
+        <v>241.009769215476</v>
       </c>
       <c r="J20" t="n">
-        <v>146.485309023379</v>
+        <v>76.78161896459405</v>
       </c>
       <c r="K20" t="n">
         <v>6.727192146300958</v>
@@ -28831,43 +28831,43 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>106.8192473728358</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>112.4091523741034</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>15.09197235108875</v>
+        <v>125.164777951944</v>
       </c>
       <c r="Q20" t="n">
-        <v>278.2096703566691</v>
+        <v>89.71173703742195</v>
       </c>
       <c r="R20" t="n">
-        <v>194.8815453823668</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="S20" t="n">
-        <v>297.4476709269845</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="U20" t="n">
-        <v>297.4476709269845</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="W20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="X20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="Y20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
     </row>
     <row r="21">
@@ -28877,25 +28877,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>136.457039315847</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>101.4327582841261</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H21" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>107.3634103439873</v>
@@ -28922,7 +28922,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R21" t="n">
         <v>134.7198007890777</v>
@@ -28937,16 +28937,16 @@
         <v>237.2280694968886</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>52.15098759615506</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>28.81498112022342</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>34.88635281477843</v>
       </c>
     </row>
     <row r="22">
@@ -29035,34 +29035,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="C23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="D23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="E23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="F23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="G23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="H23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="I23" t="n">
-        <v>297.4476709269845</v>
+        <v>241.009769215476</v>
       </c>
       <c r="J23" t="n">
-        <v>265.279552283841</v>
+        <v>76.78161896459405</v>
       </c>
       <c r="K23" t="n">
-        <v>6.727192146300958</v>
+        <v>195.2251254655482</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29071,40 +29071,40 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>112.4091523741034</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>174.4391321952919</v>
+        <v>103.8062012744444</v>
       </c>
       <c r="Q23" t="n">
         <v>89.71173703742195</v>
       </c>
       <c r="R23" t="n">
-        <v>297.4476709269845</v>
+        <v>194.8815453823668</v>
       </c>
       <c r="S23" t="n">
-        <v>227.5169945584482</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="T23" t="n">
         <v>222.4658813998192</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1505414926498</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="V23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="W23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="X23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="Y23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
     </row>
     <row r="24">
@@ -29117,7 +29117,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
@@ -29135,10 +29135,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,28 +29159,28 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.869455874161037</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S24" t="n">
-        <v>3.092858000757332</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T24" t="n">
-        <v>26.47299028624329</v>
+        <v>26.47299028624309</v>
       </c>
       <c r="U24" t="n">
-        <v>184.128993901177</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>52.15098759615506</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>50.30415297699651</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29226,7 +29226,7 @@
         <v>32.15181624817887</v>
       </c>
       <c r="M25" t="n">
-        <v>25.21686539889344</v>
+        <v>25.21686539889345</v>
       </c>
       <c r="N25" t="n">
         <v>16.52015736928134</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="C26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="D26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="E26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="F26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="G26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="H26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="I26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="J26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="K26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="L26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="M26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="N26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="O26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="P26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505239993</v>
       </c>
       <c r="R26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="S26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="T26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="U26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="V26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="W26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="X26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="Y26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240011</v>
       </c>
     </row>
     <row r="27">
@@ -29354,19 +29354,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>47.05079075916373</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>125.7355245857741</v>
@@ -29399,28 +29399,28 @@
         <v>6.869455874161034</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>191.5907913200043</v>
       </c>
       <c r="T27" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="U27" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="V27" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="W27" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="X27" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>213.484750524001</v>
+        <v>80.14321951019713</v>
       </c>
     </row>
     <row r="28">
@@ -29430,7 +29430,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>213.484750524001</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
         <v>166.4571809719723</v>
@@ -29457,7 +29457,7 @@
         <v>120.239607582909</v>
       </c>
       <c r="K28" t="n">
-        <v>87.72781381541476</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L28" t="n">
         <v>32.15181624817887</v>
@@ -29469,37 +29469,37 @@
         <v>16.52015736928134</v>
       </c>
       <c r="O28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="P28" t="n">
         <v>58.47859890024887</v>
       </c>
       <c r="Q28" t="n">
-        <v>127.2169859636892</v>
+        <v>173.727860130579</v>
       </c>
       <c r="R28" t="n">
-        <v>203.4299611556341</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="S28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="T28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="U28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="V28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="W28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="X28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240011</v>
       </c>
     </row>
     <row r="29">
@@ -29588,19 +29588,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>152.1263363581194</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>148.7446044746268</v>
@@ -29612,7 +29612,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J30" t="n">
-        <v>52.47517038390257</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,10 +29633,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.869455874161009</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>134.7198007890776</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S30" t="n">
         <v>191.5907913200043</v>
@@ -29645,7 +29645,7 @@
         <v>213.484750524001</v>
       </c>
       <c r="U30" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>213.484750524001</v>
@@ -29654,10 +29654,10 @@
         <v>213.484750524001</v>
       </c>
       <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
         <v>213.484750524001</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>73.01738975879857</v>
       </c>
     </row>
     <row r="31">
@@ -29691,31 +29691,31 @@
         <v>164.852968067965</v>
       </c>
       <c r="J31" t="n">
-        <v>120.2396075829089</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K31" t="n">
-        <v>67.02998013918996</v>
+        <v>108.2137865564824</v>
       </c>
       <c r="L31" t="n">
-        <v>32.15181624817885</v>
+        <v>213.484750524001</v>
       </c>
       <c r="M31" t="n">
-        <v>25.21686539889342</v>
+        <v>25.21686539889344</v>
       </c>
       <c r="N31" t="n">
-        <v>16.52015736928131</v>
+        <v>16.52015736928134</v>
       </c>
       <c r="O31" t="n">
-        <v>37.47888399777676</v>
+        <v>37.47888399777679</v>
       </c>
       <c r="P31" t="n">
+        <v>58.47859890024887</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>127.2169859636892</v>
+      </c>
+      <c r="R31" t="n">
         <v>213.484750524001</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>204.7823644014192</v>
-      </c>
-      <c r="R31" t="n">
-        <v>203.4299611556341</v>
       </c>
       <c r="S31" t="n">
         <v>213.484750524001</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="C32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="D32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="E32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="F32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="G32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="H32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="I32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="J32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="K32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="L32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="M32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="N32" t="n">
-        <v>194.19533564075</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="O32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="P32" t="n">
-        <v>214.3124603908652</v>
+        <v>194.1953356407495</v>
       </c>
       <c r="Q32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="R32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="S32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="T32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="U32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="V32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="W32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="X32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="Y32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
     </row>
     <row r="33">
@@ -29825,19 +29825,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>157.6366207010675</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>148.7446044746268</v>
@@ -29849,7 +29849,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J33" t="n">
-        <v>52.47517038390257</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,31 +29870,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.869455874161009</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R33" t="n">
-        <v>134.7198007890776</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S33" t="n">
         <v>191.5907913200043</v>
       </c>
       <c r="T33" t="n">
-        <v>214.3124603908652</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>68.87884042447718</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="V33" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="W33" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="X33" t="n">
-        <v>214.3124603908652</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
     </row>
     <row r="34">
@@ -29928,25 +29928,25 @@
         <v>164.852968067965</v>
       </c>
       <c r="J34" t="n">
-        <v>120.2396075829089</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K34" t="n">
-        <v>67.02998013918996</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L34" t="n">
-        <v>32.15181624817885</v>
+        <v>32.15181624817887</v>
       </c>
       <c r="M34" t="n">
-        <v>25.21686539889342</v>
+        <v>25.21686539889344</v>
       </c>
       <c r="N34" t="n">
-        <v>66.34650092845162</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="O34" t="n">
-        <v>214.3124603908652</v>
+        <v>37.47888399777679</v>
       </c>
       <c r="P34" t="n">
-        <v>58.47859890024885</v>
+        <v>87.34621583092326</v>
       </c>
       <c r="Q34" t="n">
         <v>127.2169859636892</v>
@@ -29955,25 +29955,25 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="T34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="U34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="V34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="W34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="X34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="Y34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
     </row>
     <row r="35">
@@ -30007,13 +30007,13 @@
         <v>272.0591682562687</v>
       </c>
       <c r="J35" t="n">
-        <v>249.5310899769602</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="K35" t="n">
-        <v>6.727192146300908</v>
+        <v>6.727192146300958</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>82.60437773284157</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30022,25 +30022,25 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>225.8945117006672</v>
       </c>
       <c r="P35" t="n">
         <v>272.0591682562687</v>
       </c>
       <c r="Q35" t="n">
-        <v>272.0591682562687</v>
+        <v>89.71173703742195</v>
       </c>
       <c r="R35" t="n">
-        <v>272.0591682562687</v>
+        <v>194.8815453823668</v>
       </c>
       <c r="S35" t="n">
         <v>227.5169945584482</v>
       </c>
       <c r="T35" t="n">
-        <v>272.0591682562687</v>
+        <v>222.4658813998192</v>
       </c>
       <c r="U35" t="n">
-        <v>272.0591682562687</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V35" t="n">
         <v>272.0591682562687</v>
@@ -30062,10 +30062,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
@@ -30080,13 +30080,13 @@
         <v>148.7446044746268</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I36" t="n">
         <v>107.3634103439873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,19 +30107,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.869455874161009</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R36" t="n">
-        <v>134.7198007890776</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S36" t="n">
-        <v>74.71058840024818</v>
+        <v>23.54046985571475</v>
       </c>
       <c r="T36" t="n">
         <v>214.9709236054903</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -30165,25 +30165,25 @@
         <v>164.852968067965</v>
       </c>
       <c r="J37" t="n">
-        <v>155.796109516756</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K37" t="n">
-        <v>67.02998013918996</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L37" t="n">
-        <v>32.15181624817885</v>
+        <v>32.15181624817887</v>
       </c>
       <c r="M37" t="n">
-        <v>25.21686539889342</v>
+        <v>25.21686539889344</v>
       </c>
       <c r="N37" t="n">
-        <v>16.52015736928131</v>
+        <v>16.52015736928134</v>
       </c>
       <c r="O37" t="n">
-        <v>37.47888399777676</v>
+        <v>37.47888399777679</v>
       </c>
       <c r="P37" t="n">
-        <v>58.47859890024885</v>
+        <v>58.47859890024887</v>
       </c>
       <c r="Q37" t="n">
         <v>127.2169859636892</v>
@@ -30195,7 +30195,7 @@
         <v>235.4380443661805</v>
       </c>
       <c r="T37" t="n">
-        <v>223.761558450323</v>
+        <v>259.3180603841701</v>
       </c>
       <c r="U37" t="n">
         <v>272.0591682562687</v>
@@ -30241,43 +30241,43 @@
         <v>272.0591682562687</v>
       </c>
       <c r="I38" t="n">
-        <v>272.0591682562687</v>
+        <v>241.009769215476</v>
       </c>
       <c r="J38" t="n">
-        <v>272.0591682562687</v>
+        <v>76.78161896459405</v>
       </c>
       <c r="K38" t="n">
-        <v>196.6241360743519</v>
+        <v>6.727192146300958</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>213.2680391874426</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>125.740877866379</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>225.8945117006672</v>
       </c>
       <c r="P38" t="n">
-        <v>15.0919723510887</v>
+        <v>15.09197235108875</v>
       </c>
       <c r="Q38" t="n">
         <v>272.0591682562687</v>
       </c>
       <c r="R38" t="n">
-        <v>272.0591682562687</v>
+        <v>194.8815453823668</v>
       </c>
       <c r="S38" t="n">
         <v>272.0591682562687</v>
       </c>
       <c r="T38" t="n">
-        <v>272.0591682562687</v>
+        <v>222.4658813998192</v>
       </c>
       <c r="U38" t="n">
-        <v>272.0591682562687</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V38" t="n">
         <v>272.0591682562687</v>
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
@@ -30308,22 +30308,22 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>148.7446044746268</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I39" t="n">
         <v>107.3634103439873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,22 +30344,22 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>92.40987208685559</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>237.2280694968886</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>17.45825788184402</v>
       </c>
       <c r="W39" t="n">
         <v>266.7045835770116</v>
@@ -30402,34 +30402,34 @@
         <v>164.852968067965</v>
       </c>
       <c r="J40" t="n">
-        <v>120.2396075829089</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K40" t="n">
-        <v>67.02998013918996</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L40" t="n">
-        <v>32.15181624817885</v>
+        <v>32.15181624817887</v>
       </c>
       <c r="M40" t="n">
-        <v>25.21686539889342</v>
+        <v>25.21686539889344</v>
       </c>
       <c r="N40" t="n">
-        <v>16.52015736928131</v>
+        <v>16.52015736928134</v>
       </c>
       <c r="O40" t="n">
-        <v>37.47888399777676</v>
+        <v>37.47888399777679</v>
       </c>
       <c r="P40" t="n">
-        <v>58.47859890024885</v>
+        <v>58.47859890024887</v>
       </c>
       <c r="Q40" t="n">
-        <v>162.7734878975363</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R40" t="n">
         <v>203.4299611556341</v>
       </c>
       <c r="S40" t="n">
-        <v>235.4380443661805</v>
+        <v>270.9945463000276</v>
       </c>
       <c r="T40" t="n">
         <v>223.761558450323</v>
@@ -30481,19 +30481,19 @@
         <v>241.009769215476</v>
       </c>
       <c r="J41" t="n">
+        <v>76.78161896459405</v>
+      </c>
+      <c r="K41" t="n">
+        <v>6.727192146300958</v>
+      </c>
+      <c r="L41" t="n">
         <v>241.009769215476</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
+        <v>200.6503998530177</v>
+      </c>
+      <c r="N41" t="n">
         <v>241.009769215476</v>
-      </c>
-      <c r="L41" t="n">
-        <v>54.69629248006513</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>241.009769215476</v>
@@ -30502,16 +30502,16 @@
         <v>241.009769215476</v>
       </c>
       <c r="Q41" t="n">
-        <v>241.009769215476</v>
+        <v>89.71173703742195</v>
       </c>
       <c r="R41" t="n">
-        <v>241.009769215476</v>
+        <v>194.8815453823668</v>
       </c>
       <c r="S41" t="n">
-        <v>241.009769215476</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T41" t="n">
-        <v>241.009769215476</v>
+        <v>222.4658813998192</v>
       </c>
       <c r="U41" t="n">
         <v>241.009769215476</v>
@@ -30551,16 +30551,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I42" t="n">
         <v>107.3634103439873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,28 +30581,28 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R42" t="n">
-        <v>134.7198007890776</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S42" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>237.2280694968886</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>164.2833375921165</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>68.21037150915461</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30624,7 +30624,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E43" t="n">
-        <v>141.676141212225</v>
+        <v>241.009769215476</v>
       </c>
       <c r="F43" t="n">
         <v>138.9268822184467</v>
@@ -30639,25 +30639,25 @@
         <v>164.852968067965</v>
       </c>
       <c r="J43" t="n">
-        <v>120.2396075829089</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K43" t="n">
-        <v>67.02998013918996</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L43" t="n">
-        <v>32.15181624817885</v>
+        <v>32.15181624817887</v>
       </c>
       <c r="M43" t="n">
-        <v>25.21686539889342</v>
+        <v>25.21686539889344</v>
       </c>
       <c r="N43" t="n">
-        <v>16.52015736928131</v>
+        <v>16.52015736928134</v>
       </c>
       <c r="O43" t="n">
-        <v>140.5775184186755</v>
+        <v>37.47888399777679</v>
       </c>
       <c r="P43" t="n">
-        <v>58.47859890024885</v>
+        <v>58.47859890024887</v>
       </c>
       <c r="Q43" t="n">
         <v>127.2169859636892</v>
@@ -30666,7 +30666,7 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S43" t="n">
-        <v>235.4380443661805</v>
+        <v>239.2030507838281</v>
       </c>
       <c r="T43" t="n">
         <v>223.761558450323</v>
@@ -30718,16 +30718,16 @@
         <v>241.009769215476</v>
       </c>
       <c r="J44" t="n">
-        <v>76.78161896459402</v>
+        <v>241.009769215476</v>
       </c>
       <c r="K44" t="n">
-        <v>9.951335988155719</v>
+        <v>241.009769215476</v>
       </c>
       <c r="L44" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>241.009769215476</v>
+        <v>132.861178785859</v>
       </c>
       <c r="N44" t="n">
         <v>241.009769215476</v>
@@ -30742,7 +30742,7 @@
         <v>241.009769215476</v>
       </c>
       <c r="R44" t="n">
-        <v>241.009769215476</v>
+        <v>194.8815453823668</v>
       </c>
       <c r="S44" t="n">
         <v>227.5169945584482</v>
@@ -30779,10 +30779,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
@@ -30797,7 +30797,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J45" t="n">
-        <v>52.47517038390258</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,19 +30818,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.869455874161012</v>
+        <v>6.869455874161034</v>
       </c>
       <c r="R45" t="n">
-        <v>134.7198007890776</v>
+        <v>56.91450858118482</v>
       </c>
       <c r="S45" t="n">
-        <v>13.6245343776165</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -30839,7 +30839,7 @@
         <v>241.009769215476</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30858,10 +30858,10 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
-        <v>148.9476566683584</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>241.009769215476</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
         <v>138.9268822184467</v>
@@ -30876,28 +30876,28 @@
         <v>164.852968067965</v>
       </c>
       <c r="J46" t="n">
-        <v>120.2396075829089</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K46" t="n">
-        <v>67.02998013918996</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L46" t="n">
-        <v>32.15181624817886</v>
+        <v>32.15181624817887</v>
       </c>
       <c r="M46" t="n">
-        <v>25.21686539889342</v>
+        <v>25.21686539889344</v>
       </c>
       <c r="N46" t="n">
-        <v>16.52015736928132</v>
+        <v>16.52015736928134</v>
       </c>
       <c r="O46" t="n">
-        <v>37.47888399777677</v>
+        <v>37.47888399777679</v>
       </c>
       <c r="P46" t="n">
-        <v>58.47859890024885</v>
+        <v>58.47859890024887</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.2169859636892</v>
+        <v>230.3156203845879</v>
       </c>
       <c r="R46" t="n">
         <v>203.4299611556341</v>
@@ -32698,10 +32698,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4067191319631735</v>
+        <v>0.4067191319631734</v>
       </c>
       <c r="H23" t="n">
-        <v>4.165312310217852</v>
+        <v>4.165312310217851</v>
       </c>
       <c r="I23" t="n">
         <v>15.68003933501026</v>
@@ -32710,31 +32710,31 @@
         <v>34.51977792645943</v>
       </c>
       <c r="K23" t="n">
-        <v>51.73619878246057</v>
+        <v>51.73619878246056</v>
       </c>
       <c r="L23" t="n">
-        <v>64.18332941727856</v>
+        <v>64.18332941727854</v>
       </c>
       <c r="M23" t="n">
-        <v>71.41632078032865</v>
+        <v>71.41632078032863</v>
       </c>
       <c r="N23" t="n">
         <v>72.57191151401901</v>
       </c>
       <c r="O23" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556019</v>
       </c>
       <c r="P23" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521934</v>
       </c>
       <c r="Q23" t="n">
         <v>43.92109066178818</v>
       </c>
       <c r="R23" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318171</v>
       </c>
       <c r="S23" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610824</v>
       </c>
       <c r="T23" t="n">
         <v>1.780413000168793</v>
@@ -32786,7 +32786,7 @@
         <v>7.492409103729623</v>
       </c>
       <c r="J24" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K24" t="n">
         <v>35.13987592000172</v>
@@ -32795,16 +32795,16 @@
         <v>47.24989970447579</v>
       </c>
       <c r="M24" t="n">
-        <v>55.13840432133251</v>
+        <v>55.1384043213325</v>
       </c>
       <c r="N24" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427552</v>
       </c>
       <c r="O24" t="n">
         <v>51.77588747134023</v>
       </c>
       <c r="P24" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862169</v>
       </c>
       <c r="Q24" t="n">
         <v>27.77822605795502</v>
@@ -32813,10 +32813,10 @@
         <v>13.51115200922249</v>
       </c>
       <c r="S24" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935659</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8771368109971364</v>
+        <v>0.8771368109971363</v>
       </c>
       <c r="U24" t="n">
         <v>0.01431670529375088</v>
@@ -32862,10 +32862,10 @@
         <v>1.622059239773296</v>
       </c>
       <c r="I25" t="n">
-        <v>5.486474402014379</v>
+        <v>5.486474402014378</v>
       </c>
       <c r="J25" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K25" t="n">
         <v>21.19623423752833</v>
@@ -32877,13 +32877,13 @@
         <v>28.59833074786393</v>
       </c>
       <c r="N25" t="n">
-        <v>27.91832636309192</v>
+        <v>27.91832636309191</v>
       </c>
       <c r="O25" t="n">
         <v>25.78709310837955</v>
       </c>
       <c r="P25" t="n">
-        <v>22.06531301221259</v>
+        <v>22.06531301221258</v>
       </c>
       <c r="Q25" t="n">
         <v>15.27687899545176</v>
@@ -32895,10 +32895,10 @@
         <v>3.179435135629249</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7795172215679432</v>
+        <v>0.7795172215679431</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009951283679590779</v>
+        <v>0.009951283679590778</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4067191319631738</v>
+        <v>0.4067191319631735</v>
       </c>
       <c r="H29" t="n">
-        <v>4.165312310217855</v>
+        <v>4.165312310217852</v>
       </c>
       <c r="I29" t="n">
-        <v>15.68003933501027</v>
+        <v>15.68003933501026</v>
       </c>
       <c r="J29" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645943</v>
       </c>
       <c r="K29" t="n">
-        <v>51.73619878246062</v>
+        <v>51.73619878246057</v>
       </c>
       <c r="L29" t="n">
-        <v>64.18332941727861</v>
+        <v>64.18332941727856</v>
       </c>
       <c r="M29" t="n">
-        <v>71.4163207803287</v>
+        <v>71.41632078032865</v>
       </c>
       <c r="N29" t="n">
-        <v>72.57191151401908</v>
+        <v>72.57191151401901</v>
       </c>
       <c r="O29" t="n">
-        <v>68.52759814556026</v>
+        <v>68.52759814556021</v>
       </c>
       <c r="P29" t="n">
-        <v>58.4867195752194</v>
+        <v>58.48671957521935</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.92109066178822</v>
+        <v>43.92109066178818</v>
       </c>
       <c r="R29" t="n">
-        <v>25.54857067318174</v>
+        <v>25.54857067318172</v>
       </c>
       <c r="S29" t="n">
-        <v>9.268112219610833</v>
+        <v>9.268112219610826</v>
       </c>
       <c r="T29" t="n">
-        <v>1.780413000168794</v>
+        <v>1.780413000168793</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0325375305570539</v>
+        <v>0.03253753055705387</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2176139204650134</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H30" t="n">
-        <v>2.10169233712263</v>
+        <v>2.101692337122628</v>
       </c>
       <c r="I30" t="n">
-        <v>7.49240910372963</v>
+        <v>7.492409103729623</v>
       </c>
       <c r="J30" t="n">
-        <v>20.55974324884586</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K30" t="n">
-        <v>35.13987592000175</v>
+        <v>35.13987592000172</v>
       </c>
       <c r="L30" t="n">
-        <v>47.24989970447584</v>
+        <v>47.24989970447579</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13840432133256</v>
+        <v>55.13840432133251</v>
       </c>
       <c r="N30" t="n">
-        <v>56.59775381427558</v>
+        <v>56.59775381427553</v>
       </c>
       <c r="O30" t="n">
-        <v>51.77588747134028</v>
+        <v>51.77588747134023</v>
       </c>
       <c r="P30" t="n">
-        <v>41.55471433862174</v>
+        <v>41.5547143386217</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.77822605795505</v>
+        <v>27.77822605795502</v>
       </c>
       <c r="R30" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S30" t="n">
-        <v>4.042083127935663</v>
+        <v>4.04208312793566</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8771368109971371</v>
+        <v>0.8771368109971364</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01431670529375089</v>
+        <v>0.01431670529375088</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1824402007924976</v>
+        <v>0.1824402007924974</v>
       </c>
       <c r="H31" t="n">
-        <v>1.622059239773298</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I31" t="n">
-        <v>5.486474402014383</v>
+        <v>5.486474402014379</v>
       </c>
       <c r="J31" t="n">
-        <v>12.89852219602958</v>
+        <v>12.89852219602957</v>
       </c>
       <c r="K31" t="n">
-        <v>21.19623423752835</v>
+        <v>21.19623423752833</v>
       </c>
       <c r="L31" t="n">
-        <v>27.1238822160046</v>
+        <v>27.12388221600457</v>
       </c>
       <c r="M31" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786393</v>
       </c>
       <c r="N31" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309192</v>
       </c>
       <c r="O31" t="n">
-        <v>25.78709310837958</v>
+        <v>25.78709310837955</v>
       </c>
       <c r="P31" t="n">
-        <v>22.06531301221261</v>
+        <v>22.06531301221259</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.27687899545177</v>
+        <v>15.27687899545176</v>
       </c>
       <c r="R31" t="n">
-        <v>8.203174846542661</v>
+        <v>8.203174846542653</v>
       </c>
       <c r="S31" t="n">
-        <v>3.179435135629252</v>
+        <v>3.179435135629249</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7795172215679439</v>
+        <v>0.7795172215679432</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009951283679590788</v>
+        <v>0.009951283679590779</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4067191319631738</v>
+        <v>0.4067191319631735</v>
       </c>
       <c r="H32" t="n">
-        <v>4.165312310217855</v>
+        <v>4.165312310217852</v>
       </c>
       <c r="I32" t="n">
-        <v>15.68003933501027</v>
+        <v>15.68003933501026</v>
       </c>
       <c r="J32" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645943</v>
       </c>
       <c r="K32" t="n">
-        <v>51.73619878246062</v>
+        <v>51.73619878246057</v>
       </c>
       <c r="L32" t="n">
-        <v>64.18332941727861</v>
+        <v>64.18332941727856</v>
       </c>
       <c r="M32" t="n">
-        <v>71.4163207803287</v>
+        <v>71.41632078032865</v>
       </c>
       <c r="N32" t="n">
-        <v>72.57191151401908</v>
+        <v>72.57191151401901</v>
       </c>
       <c r="O32" t="n">
-        <v>68.52759814556026</v>
+        <v>68.52759814556021</v>
       </c>
       <c r="P32" t="n">
-        <v>58.4867195752194</v>
+        <v>58.48671957521935</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.92109066178822</v>
+        <v>43.92109066178818</v>
       </c>
       <c r="R32" t="n">
-        <v>25.54857067318174</v>
+        <v>25.54857067318172</v>
       </c>
       <c r="S32" t="n">
-        <v>9.268112219610833</v>
+        <v>9.268112219610826</v>
       </c>
       <c r="T32" t="n">
-        <v>1.780413000168794</v>
+        <v>1.780413000168793</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0325375305570539</v>
+        <v>0.03253753055705387</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2176139204650134</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H33" t="n">
-        <v>2.10169233712263</v>
+        <v>2.101692337122628</v>
       </c>
       <c r="I33" t="n">
-        <v>7.49240910372963</v>
+        <v>7.492409103729623</v>
       </c>
       <c r="J33" t="n">
-        <v>20.55974324884586</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K33" t="n">
-        <v>35.13987592000175</v>
+        <v>35.13987592000172</v>
       </c>
       <c r="L33" t="n">
-        <v>47.24989970447584</v>
+        <v>47.24989970447579</v>
       </c>
       <c r="M33" t="n">
-        <v>55.13840432133256</v>
+        <v>55.13840432133251</v>
       </c>
       <c r="N33" t="n">
-        <v>56.59775381427558</v>
+        <v>56.59775381427553</v>
       </c>
       <c r="O33" t="n">
-        <v>51.77588747134028</v>
+        <v>51.77588747134023</v>
       </c>
       <c r="P33" t="n">
-        <v>41.55471433862174</v>
+        <v>41.5547143386217</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.77822605795505</v>
+        <v>27.77822605795502</v>
       </c>
       <c r="R33" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S33" t="n">
-        <v>4.042083127935663</v>
+        <v>4.04208312793566</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8771368109971371</v>
+        <v>0.8771368109971364</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01431670529375089</v>
+        <v>0.01431670529375088</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1824402007924976</v>
+        <v>0.1824402007924974</v>
       </c>
       <c r="H34" t="n">
-        <v>1.622059239773298</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I34" t="n">
-        <v>5.486474402014383</v>
+        <v>5.486474402014379</v>
       </c>
       <c r="J34" t="n">
-        <v>12.89852219602958</v>
+        <v>12.89852219602957</v>
       </c>
       <c r="K34" t="n">
-        <v>21.19623423752835</v>
+        <v>21.19623423752833</v>
       </c>
       <c r="L34" t="n">
-        <v>27.1238822160046</v>
+        <v>27.12388221600457</v>
       </c>
       <c r="M34" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786393</v>
       </c>
       <c r="N34" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309192</v>
       </c>
       <c r="O34" t="n">
-        <v>25.78709310837958</v>
+        <v>25.78709310837955</v>
       </c>
       <c r="P34" t="n">
-        <v>22.06531301221261</v>
+        <v>22.06531301221259</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.27687899545177</v>
+        <v>15.27687899545176</v>
       </c>
       <c r="R34" t="n">
-        <v>8.203174846542661</v>
+        <v>8.203174846542653</v>
       </c>
       <c r="S34" t="n">
-        <v>3.179435135629252</v>
+        <v>3.179435135629249</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7795172215679439</v>
+        <v>0.7795172215679432</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009951283679590788</v>
+        <v>0.009951283679590779</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4067191319631738</v>
+        <v>0.4067191319631735</v>
       </c>
       <c r="H35" t="n">
-        <v>4.165312310217855</v>
+        <v>4.165312310217852</v>
       </c>
       <c r="I35" t="n">
-        <v>15.68003933501027</v>
+        <v>15.68003933501026</v>
       </c>
       <c r="J35" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645943</v>
       </c>
       <c r="K35" t="n">
-        <v>51.73619878246062</v>
+        <v>51.73619878246057</v>
       </c>
       <c r="L35" t="n">
-        <v>64.18332941727861</v>
+        <v>64.18332941727856</v>
       </c>
       <c r="M35" t="n">
-        <v>71.4163207803287</v>
+        <v>71.41632078032865</v>
       </c>
       <c r="N35" t="n">
-        <v>72.57191151401908</v>
+        <v>72.57191151401901</v>
       </c>
       <c r="O35" t="n">
-        <v>68.52759814556026</v>
+        <v>68.52759814556021</v>
       </c>
       <c r="P35" t="n">
-        <v>58.4867195752194</v>
+        <v>58.48671957521935</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.92109066178822</v>
+        <v>43.92109066178818</v>
       </c>
       <c r="R35" t="n">
-        <v>25.54857067318174</v>
+        <v>25.54857067318172</v>
       </c>
       <c r="S35" t="n">
-        <v>9.268112219610833</v>
+        <v>9.268112219610826</v>
       </c>
       <c r="T35" t="n">
-        <v>1.780413000168794</v>
+        <v>1.780413000168793</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0325375305570539</v>
+        <v>0.03253753055705387</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2176139204650134</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H36" t="n">
-        <v>2.10169233712263</v>
+        <v>2.101692337122628</v>
       </c>
       <c r="I36" t="n">
-        <v>7.49240910372963</v>
+        <v>7.492409103729623</v>
       </c>
       <c r="J36" t="n">
-        <v>20.55974324884586</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K36" t="n">
-        <v>35.13987592000175</v>
+        <v>35.13987592000172</v>
       </c>
       <c r="L36" t="n">
-        <v>47.24989970447584</v>
+        <v>47.24989970447579</v>
       </c>
       <c r="M36" t="n">
-        <v>55.13840432133256</v>
+        <v>55.13840432133251</v>
       </c>
       <c r="N36" t="n">
-        <v>56.59775381427558</v>
+        <v>56.59775381427553</v>
       </c>
       <c r="O36" t="n">
-        <v>51.77588747134028</v>
+        <v>51.77588747134023</v>
       </c>
       <c r="P36" t="n">
-        <v>41.55471433862174</v>
+        <v>41.5547143386217</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.77822605795505</v>
+        <v>27.77822605795502</v>
       </c>
       <c r="R36" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S36" t="n">
-        <v>4.042083127935663</v>
+        <v>4.04208312793566</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8771368109971371</v>
+        <v>0.8771368109971364</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01431670529375089</v>
+        <v>0.01431670529375088</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1824402007924976</v>
+        <v>0.1824402007924974</v>
       </c>
       <c r="H37" t="n">
-        <v>1.622059239773298</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I37" t="n">
-        <v>5.486474402014383</v>
+        <v>5.486474402014379</v>
       </c>
       <c r="J37" t="n">
-        <v>12.89852219602958</v>
+        <v>12.89852219602957</v>
       </c>
       <c r="K37" t="n">
-        <v>21.19623423752835</v>
+        <v>21.19623423752833</v>
       </c>
       <c r="L37" t="n">
-        <v>27.1238822160046</v>
+        <v>27.12388221600457</v>
       </c>
       <c r="M37" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786393</v>
       </c>
       <c r="N37" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309192</v>
       </c>
       <c r="O37" t="n">
-        <v>25.78709310837958</v>
+        <v>25.78709310837955</v>
       </c>
       <c r="P37" t="n">
-        <v>22.06531301221261</v>
+        <v>22.06531301221259</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.27687899545177</v>
+        <v>15.27687899545176</v>
       </c>
       <c r="R37" t="n">
-        <v>8.203174846542661</v>
+        <v>8.203174846542653</v>
       </c>
       <c r="S37" t="n">
-        <v>3.179435135629252</v>
+        <v>3.179435135629249</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7795172215679439</v>
+        <v>0.7795172215679432</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009951283679590788</v>
+        <v>0.009951283679590779</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4067191319631738</v>
+        <v>0.4067191319631735</v>
       </c>
       <c r="H38" t="n">
-        <v>4.165312310217855</v>
+        <v>4.165312310217852</v>
       </c>
       <c r="I38" t="n">
-        <v>15.68003933501027</v>
+        <v>15.68003933501026</v>
       </c>
       <c r="J38" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645943</v>
       </c>
       <c r="K38" t="n">
-        <v>51.73619878246062</v>
+        <v>51.73619878246057</v>
       </c>
       <c r="L38" t="n">
-        <v>64.18332941727861</v>
+        <v>64.18332941727856</v>
       </c>
       <c r="M38" t="n">
-        <v>71.4163207803287</v>
+        <v>71.41632078032865</v>
       </c>
       <c r="N38" t="n">
-        <v>72.57191151401908</v>
+        <v>72.57191151401901</v>
       </c>
       <c r="O38" t="n">
-        <v>68.52759814556026</v>
+        <v>68.52759814556021</v>
       </c>
       <c r="P38" t="n">
-        <v>58.4867195752194</v>
+        <v>58.48671957521935</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.92109066178822</v>
+        <v>43.92109066178818</v>
       </c>
       <c r="R38" t="n">
-        <v>25.54857067318174</v>
+        <v>25.54857067318172</v>
       </c>
       <c r="S38" t="n">
-        <v>9.268112219610833</v>
+        <v>9.268112219610826</v>
       </c>
       <c r="T38" t="n">
-        <v>1.780413000168794</v>
+        <v>1.780413000168793</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0325375305570539</v>
+        <v>0.03253753055705387</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2176139204650134</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H39" t="n">
-        <v>2.10169233712263</v>
+        <v>2.101692337122628</v>
       </c>
       <c r="I39" t="n">
-        <v>7.49240910372963</v>
+        <v>7.492409103729623</v>
       </c>
       <c r="J39" t="n">
-        <v>20.55974324884586</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K39" t="n">
-        <v>35.13987592000175</v>
+        <v>35.13987592000172</v>
       </c>
       <c r="L39" t="n">
-        <v>47.24989970447584</v>
+        <v>47.24989970447579</v>
       </c>
       <c r="M39" t="n">
-        <v>55.13840432133256</v>
+        <v>55.13840432133251</v>
       </c>
       <c r="N39" t="n">
-        <v>56.59775381427558</v>
+        <v>56.59775381427553</v>
       </c>
       <c r="O39" t="n">
-        <v>51.77588747134028</v>
+        <v>51.77588747134023</v>
       </c>
       <c r="P39" t="n">
-        <v>41.55471433862174</v>
+        <v>41.5547143386217</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.77822605795505</v>
+        <v>27.77822605795502</v>
       </c>
       <c r="R39" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S39" t="n">
-        <v>4.042083127935663</v>
+        <v>4.04208312793566</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8771368109971371</v>
+        <v>0.8771368109971364</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01431670529375089</v>
+        <v>0.01431670529375088</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1824402007924976</v>
+        <v>0.1824402007924974</v>
       </c>
       <c r="H40" t="n">
-        <v>1.622059239773298</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I40" t="n">
-        <v>5.486474402014383</v>
+        <v>5.486474402014379</v>
       </c>
       <c r="J40" t="n">
-        <v>12.89852219602958</v>
+        <v>12.89852219602957</v>
       </c>
       <c r="K40" t="n">
-        <v>21.19623423752835</v>
+        <v>21.19623423752833</v>
       </c>
       <c r="L40" t="n">
-        <v>27.1238822160046</v>
+        <v>27.12388221600457</v>
       </c>
       <c r="M40" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786393</v>
       </c>
       <c r="N40" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309192</v>
       </c>
       <c r="O40" t="n">
-        <v>25.78709310837958</v>
+        <v>25.78709310837955</v>
       </c>
       <c r="P40" t="n">
-        <v>22.06531301221261</v>
+        <v>22.06531301221259</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.27687899545177</v>
+        <v>15.27687899545176</v>
       </c>
       <c r="R40" t="n">
-        <v>8.203174846542661</v>
+        <v>8.203174846542653</v>
       </c>
       <c r="S40" t="n">
-        <v>3.179435135629252</v>
+        <v>3.179435135629249</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7795172215679439</v>
+        <v>0.7795172215679432</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009951283679590788</v>
+        <v>0.009951283679590779</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4067191319631738</v>
+        <v>0.4067191319631735</v>
       </c>
       <c r="H41" t="n">
-        <v>4.165312310217855</v>
+        <v>4.165312310217852</v>
       </c>
       <c r="I41" t="n">
-        <v>15.68003933501027</v>
+        <v>15.68003933501026</v>
       </c>
       <c r="J41" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645943</v>
       </c>
       <c r="K41" t="n">
-        <v>51.73619878246062</v>
+        <v>51.73619878246057</v>
       </c>
       <c r="L41" t="n">
-        <v>64.18332941727861</v>
+        <v>64.18332941727856</v>
       </c>
       <c r="M41" t="n">
-        <v>71.4163207803287</v>
+        <v>71.41632078032865</v>
       </c>
       <c r="N41" t="n">
-        <v>72.57191151401908</v>
+        <v>72.57191151401901</v>
       </c>
       <c r="O41" t="n">
-        <v>68.52759814556026</v>
+        <v>68.52759814556021</v>
       </c>
       <c r="P41" t="n">
-        <v>58.4867195752194</v>
+        <v>58.48671957521935</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.92109066178822</v>
+        <v>43.92109066178818</v>
       </c>
       <c r="R41" t="n">
-        <v>25.54857067318174</v>
+        <v>25.54857067318172</v>
       </c>
       <c r="S41" t="n">
-        <v>9.268112219610833</v>
+        <v>9.268112219610826</v>
       </c>
       <c r="T41" t="n">
-        <v>1.780413000168794</v>
+        <v>1.780413000168793</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0325375305570539</v>
+        <v>0.03253753055705387</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2176139204650134</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H42" t="n">
-        <v>2.10169233712263</v>
+        <v>2.101692337122628</v>
       </c>
       <c r="I42" t="n">
-        <v>7.49240910372963</v>
+        <v>7.492409103729623</v>
       </c>
       <c r="J42" t="n">
-        <v>20.55974324884586</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K42" t="n">
-        <v>35.13987592000175</v>
+        <v>35.13987592000172</v>
       </c>
       <c r="L42" t="n">
-        <v>47.24989970447584</v>
+        <v>47.24989970447579</v>
       </c>
       <c r="M42" t="n">
-        <v>55.13840432133256</v>
+        <v>55.13840432133251</v>
       </c>
       <c r="N42" t="n">
-        <v>56.59775381427558</v>
+        <v>56.59775381427553</v>
       </c>
       <c r="O42" t="n">
-        <v>51.77588747134028</v>
+        <v>51.77588747134023</v>
       </c>
       <c r="P42" t="n">
-        <v>41.55471433862174</v>
+        <v>41.5547143386217</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.77822605795505</v>
+        <v>27.77822605795502</v>
       </c>
       <c r="R42" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S42" t="n">
-        <v>4.042083127935663</v>
+        <v>4.04208312793566</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8771368109971371</v>
+        <v>0.8771368109971364</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01431670529375089</v>
+        <v>0.01431670529375088</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1824402007924976</v>
+        <v>0.1824402007924974</v>
       </c>
       <c r="H43" t="n">
-        <v>1.622059239773298</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I43" t="n">
-        <v>5.486474402014383</v>
+        <v>5.486474402014379</v>
       </c>
       <c r="J43" t="n">
-        <v>12.89852219602958</v>
+        <v>12.89852219602957</v>
       </c>
       <c r="K43" t="n">
-        <v>21.19623423752835</v>
+        <v>21.19623423752833</v>
       </c>
       <c r="L43" t="n">
-        <v>27.1238822160046</v>
+        <v>27.12388221600457</v>
       </c>
       <c r="M43" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786393</v>
       </c>
       <c r="N43" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309192</v>
       </c>
       <c r="O43" t="n">
-        <v>25.78709310837958</v>
+        <v>25.78709310837955</v>
       </c>
       <c r="P43" t="n">
-        <v>22.06531301221261</v>
+        <v>22.06531301221259</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.27687899545177</v>
+        <v>15.27687899545176</v>
       </c>
       <c r="R43" t="n">
-        <v>8.203174846542661</v>
+        <v>8.203174846542653</v>
       </c>
       <c r="S43" t="n">
-        <v>3.179435135629252</v>
+        <v>3.179435135629249</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7795172215679439</v>
+        <v>0.7795172215679432</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009951283679590788</v>
+        <v>0.009951283679590779</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4067191319631738</v>
+        <v>0.4067191319631735</v>
       </c>
       <c r="H44" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217852</v>
       </c>
       <c r="I44" t="n">
-        <v>15.68003933501027</v>
+        <v>15.68003933501026</v>
       </c>
       <c r="J44" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645943</v>
       </c>
       <c r="K44" t="n">
-        <v>51.73619878246061</v>
+        <v>51.73619878246057</v>
       </c>
       <c r="L44" t="n">
-        <v>64.1833294172786</v>
+        <v>64.18332941727856</v>
       </c>
       <c r="M44" t="n">
-        <v>71.41632078032869</v>
+        <v>71.41632078032865</v>
       </c>
       <c r="N44" t="n">
-        <v>72.57191151401906</v>
+        <v>72.57191151401901</v>
       </c>
       <c r="O44" t="n">
-        <v>68.52759814556025</v>
+        <v>68.52759814556021</v>
       </c>
       <c r="P44" t="n">
-        <v>58.48671957521939</v>
+        <v>58.48671957521935</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.92109066178821</v>
+        <v>43.92109066178818</v>
       </c>
       <c r="R44" t="n">
-        <v>25.54857067318174</v>
+        <v>25.54857067318172</v>
       </c>
       <c r="S44" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610826</v>
       </c>
       <c r="T44" t="n">
-        <v>1.780413000168794</v>
+        <v>1.780413000168793</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0325375305570539</v>
+        <v>0.03253753055705387</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2176139204650134</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H45" t="n">
-        <v>2.10169233712263</v>
+        <v>2.101692337122628</v>
       </c>
       <c r="I45" t="n">
-        <v>7.492409103729629</v>
+        <v>7.492409103729623</v>
       </c>
       <c r="J45" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K45" t="n">
-        <v>35.13987592000175</v>
+        <v>35.13987592000172</v>
       </c>
       <c r="L45" t="n">
-        <v>47.24989970447583</v>
+        <v>47.24989970447579</v>
       </c>
       <c r="M45" t="n">
-        <v>55.13840432133255</v>
+        <v>55.13840432133251</v>
       </c>
       <c r="N45" t="n">
-        <v>56.59775381427557</v>
+        <v>56.59775381427553</v>
       </c>
       <c r="O45" t="n">
-        <v>51.77588747134027</v>
+        <v>51.77588747134023</v>
       </c>
       <c r="P45" t="n">
-        <v>41.55471433862173</v>
+        <v>41.5547143386217</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.77822605795505</v>
+        <v>27.77822605795502</v>
       </c>
       <c r="R45" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S45" t="n">
-        <v>4.042083127935663</v>
+        <v>4.04208312793566</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8771368109971369</v>
+        <v>0.8771368109971364</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01431670529375089</v>
+        <v>0.01431670529375088</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1824402007924975</v>
+        <v>0.1824402007924974</v>
       </c>
       <c r="H46" t="n">
-        <v>1.622059239773298</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I46" t="n">
-        <v>5.486474402014382</v>
+        <v>5.486474402014379</v>
       </c>
       <c r="J46" t="n">
         <v>12.89852219602957</v>
       </c>
       <c r="K46" t="n">
-        <v>21.19623423752834</v>
+        <v>21.19623423752833</v>
       </c>
       <c r="L46" t="n">
-        <v>27.12388221600459</v>
+        <v>27.12388221600457</v>
       </c>
       <c r="M46" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786393</v>
       </c>
       <c r="N46" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309192</v>
       </c>
       <c r="O46" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837955</v>
       </c>
       <c r="P46" t="n">
-        <v>22.0653130122126</v>
+        <v>22.06531301221259</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.27687899545177</v>
+        <v>15.27687899545176</v>
       </c>
       <c r="R46" t="n">
-        <v>8.203174846542661</v>
+        <v>8.203174846542653</v>
       </c>
       <c r="S46" t="n">
-        <v>3.179435135629252</v>
+        <v>3.179435135629249</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7795172215679438</v>
+        <v>0.7795172215679432</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009951283679590786</v>
+        <v>0.009951283679590779</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35200,16 +35200,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>0.129915453191039</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>3.069987028295762</v>
       </c>
       <c r="M9" t="n">
-        <v>3.069987028295762</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>3.199249640013477</v>
@@ -35267,7 +35267,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="P9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.3666451884738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>171.4210720067669</v>
+        <v>171.4210720067668</v>
       </c>
       <c r="L11" t="n">
-        <v>47.19277018258599</v>
+        <v>121.8699355726746</v>
       </c>
       <c r="M11" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="N11" t="n">
         <v>76.08878094514381</v>
       </c>
       <c r="O11" t="n">
-        <v>34.56629766936138</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="P11" t="n">
-        <v>38.80562873585477</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.43652711564587</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35498,10 +35498,10 @@
         <v>183.5117642464701</v>
       </c>
       <c r="N12" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="O12" t="n">
-        <v>133.0312521404388</v>
+        <v>133.0312521404387</v>
       </c>
       <c r="P12" t="n">
         <v>84.46981137181808</v>
@@ -35541,19 +35541,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.5313434880997079</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>11.69108318109545</v>
       </c>
       <c r="D13" t="n">
-        <v>32.96561390235712</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>36.47212294084281</v>
       </c>
       <c r="F13" t="n">
-        <v>22.12831415373727</v>
+        <v>39.22138193462115</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>111.1182840138779</v>
+        <v>111.1182840138778</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -35580,13 +35580,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>140.669380155291</v>
+        <v>39.10898960328629</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>119.6696652528189</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.93127818937861</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.3666451884738</v>
+        <v>99.20316925892682</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>47.19277018258599</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="M14" t="n">
         <v>81.67868594641141</v>
       </c>
       <c r="N14" t="n">
-        <v>76.1468016087364</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O14" t="n">
         <v>188.4979333192472</v>
       </c>
       <c r="P14" t="n">
-        <v>163.0562918019791</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.43652711564587</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35784,46 +35784,46 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>25.58382018865754</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>7.722830116296859</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>9.44748922591536</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>12.32386649840125</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>13.29529608510279</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>57.90865657015888</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>111.1182840138779</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>145.996447904889</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>152.9313987541744</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>161.6281067837865</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>119.669665252819</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>50.93127818937864</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,40 +35881,40 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>23.5754662256762</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>47.19277018258599</v>
+        <v>64.63687158956544</v>
       </c>
       <c r="M17" t="n">
         <v>81.67868594641141</v>
       </c>
       <c r="N17" t="n">
-        <v>76.08878094514381</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O17" t="n">
         <v>34.56629766936138</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="Q17" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>102.5661255446176</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.93067636853624</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>74.98178952716516</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>47.29712943433466</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -36115,10 +36115,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.43790171150849</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>69.70369005878491</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36127,31 +36127,31 @@
         <v>47.19277018258599</v>
       </c>
       <c r="M20" t="n">
-        <v>81.67868594641141</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="N20" t="n">
-        <v>76.08878094514381</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O20" t="n">
         <v>34.56629766936138</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>110.0728056008552</v>
       </c>
       <c r="Q20" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>102.5661255446176</v>
       </c>
       <c r="S20" t="n">
-        <v>69.93067636853635</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>74.98178952716528</v>
+        <v>74.98178952716516</v>
       </c>
       <c r="U20" t="n">
-        <v>47.29712943433478</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.34679395543468</v>
+        <v>38.34679395543473</v>
       </c>
       <c r="L21" t="n">
         <v>118.5181001296708</v>
@@ -36352,43 +36352,43 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.43790171150849</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>188.497933319247</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="L23" t="n">
-        <v>47.19277018258599</v>
+        <v>47.19277018258597</v>
       </c>
       <c r="M23" t="n">
-        <v>81.67868594641141</v>
+        <v>81.67868594641139</v>
       </c>
       <c r="N23" t="n">
-        <v>76.08878094514381</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O23" t="n">
-        <v>34.56629766936138</v>
+        <v>34.56629766936136</v>
       </c>
       <c r="P23" t="n">
-        <v>159.3471598442032</v>
+        <v>88.71422892335566</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>102.5661255446177</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>69.93067636853624</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>47.29712943433466</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36446,7 +36446,7 @@
         <v>183.5117642464701</v>
       </c>
       <c r="N24" t="n">
-        <v>188.497933319247</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O24" t="n">
         <v>133.0312521404388</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.7031315594069</v>
+        <v>136.703131559407</v>
       </c>
       <c r="K26" t="n">
-        <v>206.7575583777</v>
+        <v>206.7575583777001</v>
       </c>
       <c r="L26" t="n">
-        <v>260.677520706587</v>
+        <v>260.6775207065871</v>
       </c>
       <c r="M26" t="n">
-        <v>295.1634364704124</v>
+        <v>295.1634364704125</v>
       </c>
       <c r="N26" t="n">
-        <v>289.5735314691448</v>
+        <v>289.5735314691449</v>
       </c>
       <c r="O26" t="n">
-        <v>248.0510481933624</v>
+        <v>248.0510481933625</v>
       </c>
       <c r="P26" t="n">
-        <v>198.3927781729122</v>
+        <v>198.3927781729124</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.773013486579</v>
+        <v>123.7730134865773</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60320514163415</v>
+        <v>18.60320514163427</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36726,7 +36726,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.8678298590329</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>20.69783367622479</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -36765,16 +36765,16 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>176.0058665262242</v>
+        <v>176.0058665262243</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>46.51087416688978</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>10.05478936836698</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>136.7031315594069</v>
+        <v>136.703131559407</v>
       </c>
       <c r="K29" t="n">
-        <v>206.7575583777</v>
+        <v>206.7575583777001</v>
       </c>
       <c r="L29" t="n">
         <v>260.677520706587</v>
@@ -36841,19 +36841,19 @@
         <v>295.1634364704124</v>
       </c>
       <c r="N29" t="n">
-        <v>289.5735314691448</v>
+        <v>289.5735314691449</v>
       </c>
       <c r="O29" t="n">
         <v>248.0510481933624</v>
       </c>
       <c r="P29" t="n">
-        <v>198.3927781729122</v>
+        <v>198.3927781729123</v>
       </c>
       <c r="Q29" t="n">
-        <v>123.773013486579</v>
+        <v>123.7730134865791</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60320514163415</v>
+        <v>18.60320514163421</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.34679395543476</v>
+        <v>38.34679395543473</v>
       </c>
       <c r="L30" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M30" t="n">
-        <v>183.5117642464702</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N30" t="n">
-        <v>206.9747236472316</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O30" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P30" t="n">
-        <v>84.46981137181812</v>
+        <v>84.46981137181808</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36990,10 +36990,10 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>41.18380641729242</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>181.3329342758222</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -37005,13 +37005,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>155.0061516237521</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>77.56537843773002</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>10.05478936836693</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.5308414262712</v>
+        <v>137.5308414262713</v>
       </c>
       <c r="K32" t="n">
         <v>207.5852682445643</v>
@@ -37078,19 +37078,19 @@
         <v>295.9911463372767</v>
       </c>
       <c r="N32" t="n">
-        <v>270.2841165858939</v>
+        <v>290.4012413360091</v>
       </c>
       <c r="O32" t="n">
         <v>248.8787580602267</v>
       </c>
       <c r="P32" t="n">
-        <v>199.2204880397765</v>
+        <v>179.1033632896608</v>
       </c>
       <c r="Q32" t="n">
         <v>124.6007233534433</v>
       </c>
       <c r="R32" t="n">
-        <v>19.43091500849842</v>
+        <v>19.43091500849845</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.34679395543476</v>
+        <v>38.34679395543473</v>
       </c>
       <c r="L33" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M33" t="n">
-        <v>183.5117642464702</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N33" t="n">
-        <v>206.9747236472316</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O33" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P33" t="n">
-        <v>84.46981137181812</v>
+        <v>84.46981137181808</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37236,13 +37236,13 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>49.8263435591703</v>
+        <v>197.792303021584</v>
       </c>
       <c r="O34" t="n">
-        <v>176.8335763930884</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>28.86761693067439</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37300,43 +37300,43 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.04939904079269</v>
+        <v>31.04939904079268</v>
       </c>
       <c r="J35" t="n">
-        <v>172.7494710123661</v>
+        <v>195.2775492916747</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>47.19277018258605</v>
+        <v>129.7971479154276</v>
       </c>
       <c r="M35" t="n">
-        <v>81.67868594641146</v>
+        <v>81.67868594641141</v>
       </c>
       <c r="N35" t="n">
-        <v>76.08878094514388</v>
+        <v>76.08878094514381</v>
       </c>
       <c r="O35" t="n">
-        <v>34.56629766936143</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="P35" t="n">
-        <v>256.96719590518</v>
+        <v>256.9671959051799</v>
       </c>
       <c r="Q35" t="n">
-        <v>182.3474312188468</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>77.17762287390191</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>49.59328685644947</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>21.90862676361897</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.34679395543476</v>
+        <v>38.34679395543473</v>
       </c>
       <c r="L36" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M36" t="n">
-        <v>183.5117642464702</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N36" t="n">
-        <v>206.9747236472316</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O36" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P36" t="n">
-        <v>84.46981137181812</v>
+        <v>84.46981137181808</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,37 +37461,37 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>35.55650193384704</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -37537,25 +37537,25 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.04939904079269</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>195.2775492916747</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>189.896943928051</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>47.19277018258605</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="M38" t="n">
-        <v>81.67868594641146</v>
+        <v>207.4195638127904</v>
       </c>
       <c r="N38" t="n">
-        <v>76.08878094514388</v>
+        <v>76.08878094514381</v>
       </c>
       <c r="O38" t="n">
-        <v>34.56629766936143</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37564,16 +37564,16 @@
         <v>182.3474312188468</v>
       </c>
       <c r="R38" t="n">
-        <v>77.17762287390191</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>44.54217369782055</v>
+        <v>44.54217369782054</v>
       </c>
       <c r="T38" t="n">
-        <v>49.59328685644947</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>21.90862676361897</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.34679395543476</v>
+        <v>38.34679395543473</v>
       </c>
       <c r="L39" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M39" t="n">
-        <v>183.5117642464702</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N39" t="n">
-        <v>206.9747236472316</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O39" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P39" t="n">
-        <v>84.46981137181812</v>
+        <v>84.46981137181808</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37719,13 +37719,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
         <v>35.55650193384704</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.228150250882</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>234.2825770691751</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>101.8890626626512</v>
+        <v>288.202539398062</v>
       </c>
       <c r="M41" t="n">
-        <v>81.67868594641146</v>
+        <v>282.3290857994291</v>
       </c>
       <c r="N41" t="n">
-        <v>76.08878094514388</v>
+        <v>317.0985501606199</v>
       </c>
       <c r="O41" t="n">
-        <v>275.5760668848375</v>
+        <v>275.5760668848374</v>
       </c>
       <c r="P41" t="n">
         <v>225.9177968643873</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.2980321780541</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>46.1282238331092</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>13.49277465702784</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>18.54388781565676</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.34679395543476</v>
+        <v>38.34679395543473</v>
       </c>
       <c r="L42" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M42" t="n">
-        <v>183.5117642464702</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N42" t="n">
-        <v>206.9747236472316</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O42" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P42" t="n">
-        <v>84.46981137181812</v>
+        <v>84.46981137181808</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37920,7 +37920,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.33362800325105</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>103.0986344208987</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -37962,7 +37962,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>3.765006417647542</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -38014,22 +38014,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>164.228150250882</v>
       </c>
       <c r="K44" t="n">
-        <v>3.224143841854804</v>
+        <v>234.2825770691751</v>
       </c>
       <c r="L44" t="n">
-        <v>288.2025393980621</v>
+        <v>47.19277018258599</v>
       </c>
       <c r="M44" t="n">
-        <v>322.6884551618875</v>
+        <v>214.5398647322704</v>
       </c>
       <c r="N44" t="n">
-        <v>317.0985501606199</v>
+        <v>317.0985501606198</v>
       </c>
       <c r="O44" t="n">
-        <v>34.56629766936142</v>
+        <v>34.56629766936138</v>
       </c>
       <c r="P44" t="n">
         <v>225.9177968643873</v>
@@ -38038,7 +38038,7 @@
         <v>151.2980321780541</v>
       </c>
       <c r="R44" t="n">
-        <v>46.1282238331092</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.34679395543476</v>
+        <v>38.34679395543473</v>
       </c>
       <c r="L45" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M45" t="n">
-        <v>183.5117642464702</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N45" t="n">
-        <v>206.9747236472316</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O45" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P45" t="n">
-        <v>84.46981137181811</v>
+        <v>84.46981137181808</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38154,10 +38154,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>3.765006417647667</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>99.33362800325102</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>103.0986344208987</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
